--- a/excel/middle.xlsx
+++ b/excel/middle.xlsx
@@ -501,34 +501,34 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="2">
-        <v>44895</v>
+        <v>44897</v>
       </c>
       <c r="B2">
-        <v>477.6514290945871</v>
+        <v>484.5739182215656</v>
       </c>
       <c r="C2">
-        <v>484.5739135742188</v>
+        <v>491.496402767588</v>
       </c>
       <c r="D2">
-        <v>477.1569659174705</v>
+        <v>484.5739182215656</v>
       </c>
       <c r="E2">
-        <v>484.5739135742188</v>
+        <v>487.0462341308594</v>
       </c>
       <c r="F2">
-        <v>57111603</v>
+        <v>28319679</v>
       </c>
       <c r="G2">
-        <v>484.8705993652344</v>
+        <v>484.2772399902344</v>
       </c>
       <c r="H2">
-        <v>483.4366638183594</v>
+        <v>485.3156219482422</v>
       </c>
       <c r="I2">
-        <v>451.0246032714844</v>
+        <v>462.1500259399414</v>
       </c>
       <c r="J2">
-        <v>33.84599609375005</v>
+        <v>22.12721405029293</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -540,51 +540,48 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>500.3967451671421</v>
+        <v>486.0573380359111</v>
       </c>
       <c r="O2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>45462032</v>
-      </c>
-      <c r="R2">
-        <v>500.3967451671421</v>
+        <v>47291606.9</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="2">
-        <v>44896</v>
+        <v>44900</v>
       </c>
       <c r="B3">
-        <v>500.3967451671421</v>
+        <v>486.0573380359111</v>
       </c>
       <c r="C3">
-        <v>502.3745979148383</v>
+        <v>491.9908965877228</v>
       </c>
       <c r="D3">
-        <v>492.9797973632813</v>
+        <v>483.5850219726562</v>
       </c>
       <c r="E3">
-        <v>492.9797973632812</v>
+        <v>483.5850219726562</v>
       </c>
       <c r="F3">
-        <v>41746878</v>
+        <v>28360444</v>
       </c>
       <c r="G3">
-        <v>485.3650634765625</v>
+        <v>485.9584228515625</v>
       </c>
       <c r="H3">
-        <v>484.7717132568359</v>
+        <v>486.0078704833984</v>
       </c>
       <c r="I3">
-        <v>456.6862075805664</v>
+        <v>467.0452117919922</v>
       </c>
       <c r="J3">
-        <v>28.67885589599609</v>
+        <v>18.9132110595703</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -596,48 +593,48 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>484.5739182215656</v>
+        <v>482.5960815940442</v>
       </c>
       <c r="O3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>47190829.65</v>
+        <v>47287720</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="B4">
-        <v>484.5739182215656</v>
+        <v>482.5960815940442</v>
       </c>
       <c r="C4">
-        <v>491.496402767588</v>
+        <v>483.5850079907533</v>
       </c>
       <c r="D4">
-        <v>484.5739182215656</v>
+        <v>472.7068176269531</v>
       </c>
       <c r="E4">
-        <v>487.0462341308594</v>
+        <v>472.7068176269531</v>
       </c>
       <c r="F4">
-        <v>28319679</v>
+        <v>40561068</v>
       </c>
       <c r="G4">
-        <v>484.2772399902344</v>
+        <v>484.1783569335938</v>
       </c>
       <c r="H4">
-        <v>485.3156219482422</v>
+        <v>484.722265625</v>
       </c>
       <c r="I4">
-        <v>462.1500259399414</v>
+        <v>470.9514709472656</v>
       </c>
       <c r="J4">
-        <v>22.12721405029293</v>
+        <v>13.22688598632811</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -649,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>486.0573380359111</v>
+        <v>471.7178734709087</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -658,42 +655,39 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>47291606.9</v>
-      </c>
-      <c r="S4">
-        <v>486.0573380359111</v>
+        <v>46936356.9</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2">
-        <v>44900</v>
+        <v>44902</v>
       </c>
       <c r="B5">
-        <v>486.0573380359111</v>
+        <v>471.7178734709087</v>
       </c>
       <c r="C5">
-        <v>491.9908965877228</v>
+        <v>480.12374752647</v>
       </c>
       <c r="D5">
-        <v>483.5850219726562</v>
+        <v>469.7400207519531</v>
       </c>
       <c r="E5">
-        <v>483.5850219726562</v>
+        <v>469.7400207519531</v>
       </c>
       <c r="F5">
-        <v>28360444</v>
+        <v>36563503</v>
       </c>
       <c r="G5">
-        <v>485.9584228515625</v>
+        <v>481.2115783691406</v>
       </c>
       <c r="H5">
-        <v>486.0078704833984</v>
+        <v>483.0410888671875</v>
       </c>
       <c r="I5">
-        <v>467.0452117919922</v>
+        <v>473.8193557739258</v>
       </c>
       <c r="J5">
-        <v>18.9132110595703</v>
+        <v>7.392222595214832</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -705,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>482.5960815940442</v>
+        <v>469.7400203312442</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -714,51 +708,51 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>47287720</v>
+        <v>47372499.15</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2">
-        <v>44901</v>
+        <v>44903</v>
       </c>
       <c r="B6">
-        <v>482.5960815940442</v>
+        <v>469.7400203312442</v>
       </c>
       <c r="C6">
-        <v>483.5850079907533</v>
+        <v>469.7400203312442</v>
       </c>
       <c r="D6">
-        <v>472.7068176269531</v>
+        <v>461.8286094625075</v>
       </c>
       <c r="E6">
-        <v>472.7068176269531</v>
+        <v>466.2787780761719</v>
       </c>
       <c r="F6">
-        <v>40561068</v>
+        <v>27238567</v>
       </c>
       <c r="G6">
-        <v>484.1783569335938</v>
+        <v>475.8713745117187</v>
       </c>
       <c r="H6">
-        <v>484.722265625</v>
+        <v>480.6182189941406</v>
       </c>
       <c r="I6">
-        <v>470.9514709472656</v>
+        <v>476.9839187622071</v>
       </c>
       <c r="J6">
-        <v>13.22688598632811</v>
+        <v>-1.112544250488327</v>
       </c>
       <c r="K6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
       </c>
       <c r="M6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>471.7178734709087</v>
+        <v>472.7068179121641</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
@@ -767,51 +761,51 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>46936356.9</v>
+        <v>46587632.75</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2">
-        <v>44902</v>
+        <v>44904</v>
       </c>
       <c r="B7">
-        <v>471.7178734709087</v>
+        <v>472.7068179121641</v>
       </c>
       <c r="C7">
-        <v>480.12374752647</v>
+        <v>479.1348394946517</v>
       </c>
       <c r="D7">
-        <v>469.7400207519531</v>
+        <v>470.7289651175525</v>
       </c>
       <c r="E7">
-        <v>469.7400207519531</v>
+        <v>476.1680603027344</v>
       </c>
       <c r="F7">
-        <v>36563503</v>
+        <v>25915337</v>
       </c>
       <c r="G7">
-        <v>481.2115783691406</v>
+        <v>473.6957397460938</v>
       </c>
       <c r="H7">
-        <v>483.0410888671875</v>
+        <v>478.9864898681641</v>
       </c>
       <c r="I7">
-        <v>473.8193557739258</v>
+        <v>478.9617721557617</v>
       </c>
       <c r="J7">
-        <v>7.392222595214832</v>
+        <v>-5.266032409667957</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>469.7400203312442</v>
+        <v>471.2234102911698</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -820,51 +814,51 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>47372499.15</v>
+        <v>46347314</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2">
-        <v>44903</v>
+        <v>44907</v>
       </c>
       <c r="B8">
-        <v>469.7400203312442</v>
+        <v>471.2234102911698</v>
       </c>
       <c r="C8">
-        <v>469.7400203312442</v>
+        <v>472.7067998303865</v>
       </c>
       <c r="D8">
-        <v>461.8286094625075</v>
+        <v>468.2566312127364</v>
       </c>
       <c r="E8">
-        <v>466.2787780761719</v>
+        <v>469.7400207519531</v>
       </c>
       <c r="F8">
-        <v>27238567</v>
+        <v>20973334</v>
       </c>
       <c r="G8">
-        <v>475.8713745117187</v>
+        <v>470.9267395019531</v>
       </c>
       <c r="H8">
-        <v>480.6182189941406</v>
+        <v>478.4425811767578</v>
       </c>
       <c r="I8">
-        <v>476.9839187622071</v>
+        <v>480.4451614379883</v>
       </c>
       <c r="J8">
-        <v>-1.112544250488327</v>
+        <v>-9.518421936035168</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>472.7068179121641</v>
+        <v>467.76216761406</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -873,39 +867,39 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>46587632.75</v>
+        <v>43642271.1</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2">
-        <v>44904</v>
+        <v>44908</v>
       </c>
       <c r="B9">
-        <v>472.7068179121641</v>
+        <v>467.76216761406</v>
       </c>
       <c r="C9">
-        <v>479.1348394946517</v>
+        <v>470.7289466898363</v>
       </c>
       <c r="D9">
-        <v>470.7289651175525</v>
+        <v>465.7843148968759</v>
       </c>
       <c r="E9">
-        <v>476.1680603027344</v>
+        <v>466.2787780761719</v>
       </c>
       <c r="F9">
-        <v>25915337</v>
+        <v>33272826</v>
       </c>
       <c r="G9">
-        <v>473.6957397460938</v>
+        <v>469.6411315917969</v>
       </c>
       <c r="H9">
-        <v>478.9864898681641</v>
+        <v>476.9097442626953</v>
       </c>
       <c r="I9">
-        <v>478.9617721557617</v>
+        <v>480.0248657226563</v>
       </c>
       <c r="J9">
-        <v>-5.266032409667957</v>
+        <v>-10.38373413085941</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -917,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>471.2234102911698</v>
+        <v>466.7732337530892</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -926,39 +920,39 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>46347314</v>
+        <v>41594278.3</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2">
-        <v>44907</v>
+        <v>44909</v>
       </c>
       <c r="B10">
-        <v>471.2234102911698</v>
+        <v>466.7732337530892</v>
       </c>
       <c r="C10">
-        <v>472.7067998303865</v>
+        <v>475.1791076660156</v>
       </c>
       <c r="D10">
-        <v>468.2566312127364</v>
+        <v>466.7732337530892</v>
       </c>
       <c r="E10">
-        <v>469.7400207519531</v>
+        <v>475.1791076660156</v>
       </c>
       <c r="F10">
-        <v>20973334</v>
+        <v>30636639</v>
       </c>
       <c r="G10">
-        <v>470.9267395019531</v>
+        <v>470.7289489746094</v>
       </c>
       <c r="H10">
-        <v>478.4425811767578</v>
+        <v>475.970263671875</v>
       </c>
       <c r="I10">
-        <v>480.4451614379883</v>
+        <v>479.7034637451172</v>
       </c>
       <c r="J10">
-        <v>-9.518421936035168</v>
+        <v>-8.974514770507824</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -970,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>467.76216761406</v>
+        <v>473.4385222912331</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
@@ -979,39 +973,39 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>43642271.1</v>
+        <v>37588929.8</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2">
-        <v>44908</v>
+        <v>44910</v>
       </c>
       <c r="B11">
-        <v>467.76216761406</v>
+        <v>473.4385222912331</v>
       </c>
       <c r="C11">
-        <v>470.7289466898363</v>
+        <v>478.9089253849343</v>
       </c>
       <c r="D11">
-        <v>465.7843148968759</v>
+        <v>471.9465941747691</v>
       </c>
       <c r="E11">
-        <v>466.2787780761719</v>
+        <v>477.914306640625</v>
       </c>
       <c r="F11">
-        <v>33272826</v>
+        <v>24222008</v>
       </c>
       <c r="G11">
-        <v>469.6411315917969</v>
+        <v>473.0560546875</v>
       </c>
       <c r="H11">
-        <v>476.9097442626953</v>
+        <v>474.4637145996094</v>
       </c>
       <c r="I11">
-        <v>480.0248657226563</v>
+        <v>479.6177139282227</v>
       </c>
       <c r="J11">
-        <v>-10.38373413085941</v>
+        <v>-6.561659240722634</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -1023,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>466.7732337530892</v>
+        <v>463.9896695082354</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -1032,39 +1026,39 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>41594278.3</v>
+        <v>34834443</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2">
-        <v>44909</v>
+        <v>44911</v>
       </c>
       <c r="B12">
-        <v>466.7732337530892</v>
+        <v>463.9896695082354</v>
       </c>
       <c r="C12">
-        <v>475.1791076660156</v>
+        <v>468.4654541015624</v>
       </c>
       <c r="D12">
-        <v>466.7732337530892</v>
+        <v>462.9950507097183</v>
       </c>
       <c r="E12">
-        <v>475.1791076660156</v>
+        <v>468.4654541015625</v>
       </c>
       <c r="F12">
-        <v>30636639</v>
+        <v>47601400</v>
       </c>
       <c r="G12">
-        <v>470.7289489746094</v>
+        <v>471.5155334472656</v>
       </c>
       <c r="H12">
-        <v>475.970263671875</v>
+        <v>472.6056365966797</v>
       </c>
       <c r="I12">
-        <v>479.7034637451172</v>
+        <v>478.9606292724609</v>
       </c>
       <c r="J12">
-        <v>-8.974514770507824</v>
+        <v>-7.445095825195324</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -1076,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>473.4385222912331</v>
+        <v>463.9896545410157</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
@@ -1085,39 +1079,39 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>37588929.8</v>
+        <v>33788294.2</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2">
-        <v>44910</v>
+        <v>44914</v>
       </c>
       <c r="B13">
-        <v>473.4385222912331</v>
+        <v>463.9896545410157</v>
       </c>
       <c r="C13">
-        <v>478.9089253849343</v>
+        <v>466.9735108403148</v>
       </c>
       <c r="D13">
-        <v>471.9465941747691</v>
+        <v>462.4977263913661</v>
       </c>
       <c r="E13">
-        <v>477.914306640625</v>
+        <v>463.9896545410156</v>
       </c>
       <c r="F13">
-        <v>24222008</v>
+        <v>21075559</v>
       </c>
       <c r="G13">
-        <v>473.0560546875</v>
+        <v>470.3654602050781</v>
       </c>
       <c r="H13">
-        <v>474.4637145996094</v>
+        <v>470.6460998535156</v>
       </c>
       <c r="I13">
-        <v>479.6177139282227</v>
+        <v>478.326985168457</v>
       </c>
       <c r="J13">
-        <v>-6.561659240722634</v>
+        <v>-7.961524963378906</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -1129,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>463.9896695082354</v>
+        <v>462.4977266905738</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
@@ -1138,39 +1132,39 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>34834443</v>
+        <v>34375378.35</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="B14">
-        <v>463.9896695082354</v>
+        <v>462.4977266905738</v>
       </c>
       <c r="C14">
-        <v>468.4654541015624</v>
+        <v>464.4869642247268</v>
       </c>
       <c r="D14">
-        <v>462.9950507097183</v>
+        <v>452.5515390198087</v>
       </c>
       <c r="E14">
-        <v>468.4654541015625</v>
+        <v>455.0380859375</v>
       </c>
       <c r="F14">
-        <v>47601400</v>
+        <v>31139235</v>
       </c>
       <c r="G14">
-        <v>471.5155334472656</v>
+        <v>468.1173217773438</v>
       </c>
       <c r="H14">
-        <v>472.6056365966797</v>
+        <v>468.8792266845703</v>
       </c>
       <c r="I14">
-        <v>478.9606292724609</v>
+        <v>476.8007461547851</v>
       </c>
       <c r="J14">
-        <v>-7.445095825195324</v>
+        <v>-8.683424377441384</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -1182,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>463.9896545410157</v>
+        <v>457.524648097086</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
@@ -1191,39 +1185,39 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>33788294.2</v>
+        <v>33943647.3</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2">
-        <v>44914</v>
+        <v>44916</v>
       </c>
       <c r="B15">
-        <v>463.9896545410157</v>
+        <v>457.524648097086</v>
       </c>
       <c r="C15">
-        <v>466.9735108403148</v>
+        <v>460.5085044977192</v>
       </c>
       <c r="D15">
-        <v>462.4977263913661</v>
+        <v>454.5407916964529</v>
       </c>
       <c r="E15">
-        <v>463.9896545410156</v>
+        <v>456.530029296875</v>
       </c>
       <c r="F15">
-        <v>21075559</v>
+        <v>36182644</v>
       </c>
       <c r="G15">
-        <v>470.3654602050781</v>
+        <v>464.3875061035156</v>
       </c>
       <c r="H15">
-        <v>470.6460998535156</v>
+        <v>467.5582275390625</v>
       </c>
       <c r="I15">
-        <v>478.326985168457</v>
+        <v>475.299658203125</v>
       </c>
       <c r="J15">
-        <v>-7.961524963378906</v>
+        <v>-10.91215209960933</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1235,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>462.4977266905738</v>
+        <v>463.9896697019919</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
@@ -1244,39 +1238,39 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>34375378.35</v>
+        <v>33633452.7</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2">
-        <v>44915</v>
+        <v>44917</v>
       </c>
       <c r="B16">
-        <v>462.4977266905738</v>
+        <v>463.9896697019919</v>
       </c>
       <c r="C16">
-        <v>464.4869642247268</v>
+        <v>466.4762166993231</v>
       </c>
       <c r="D16">
-        <v>452.5515390198087</v>
+        <v>461.5031227046608</v>
       </c>
       <c r="E16">
-        <v>455.0380859375</v>
+        <v>465.4815979003906</v>
       </c>
       <c r="F16">
-        <v>31139235</v>
+        <v>14047382</v>
       </c>
       <c r="G16">
-        <v>468.1173217773438</v>
+        <v>461.9009643554688</v>
       </c>
       <c r="H16">
-        <v>468.8792266845703</v>
+        <v>467.4785095214844</v>
       </c>
       <c r="I16">
-        <v>476.8007461547851</v>
+        <v>474.0483642578125</v>
       </c>
       <c r="J16">
-        <v>-8.683424377441384</v>
+        <v>-12.14739990234375</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -1288,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>457.524648097086</v>
+        <v>455.0380911355491</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
@@ -1297,39 +1291,39 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>33943647.3</v>
+        <v>33768818.05</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="2">
-        <v>44916</v>
+        <v>44918</v>
       </c>
       <c r="B17">
-        <v>457.524648097086</v>
+        <v>455.0380911355491</v>
       </c>
       <c r="C17">
-        <v>460.5085044977192</v>
+        <v>456.0327099139874</v>
       </c>
       <c r="D17">
-        <v>454.5407916964529</v>
+        <v>452.5515441894532</v>
       </c>
       <c r="E17">
-        <v>456.530029296875</v>
+        <v>452.5515441894531</v>
       </c>
       <c r="F17">
-        <v>36182644</v>
+        <v>24927413</v>
       </c>
       <c r="G17">
-        <v>464.3875061035156</v>
+        <v>458.7181823730469</v>
       </c>
       <c r="H17">
-        <v>467.5582275390625</v>
+        <v>465.1168579101562</v>
       </c>
       <c r="I17">
-        <v>475.299658203125</v>
+        <v>472.0516738891602</v>
       </c>
       <c r="J17">
-        <v>-10.91215209960933</v>
+        <v>-13.33349151611327</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -1341,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>463.9896697019919</v>
+        <v>451.5569101690854</v>
       </c>
       <c r="O17" t="b">
         <v>0</v>
@@ -1350,39 +1344,39 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>33633452.7</v>
+        <v>33101359.55</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="2">
-        <v>44917</v>
+        <v>44921</v>
       </c>
       <c r="B18">
-        <v>463.9896697019919</v>
+        <v>451.5569101690854</v>
       </c>
       <c r="C18">
-        <v>466.4762166993231</v>
+        <v>454.5407664036829</v>
       </c>
       <c r="D18">
-        <v>461.5031227046608</v>
+        <v>451.0596007966525</v>
       </c>
       <c r="E18">
-        <v>465.4815979003906</v>
+        <v>454.04345703125</v>
       </c>
       <c r="F18">
-        <v>14047382</v>
+        <v>8793306</v>
       </c>
       <c r="G18">
-        <v>461.9009643554688</v>
+        <v>456.7289428710938</v>
       </c>
       <c r="H18">
-        <v>467.4785095214844</v>
+        <v>463.5472015380859</v>
       </c>
       <c r="I18">
-        <v>474.0483642578125</v>
+        <v>470.9948913574219</v>
       </c>
       <c r="J18">
-        <v>-12.14739990234375</v>
+        <v>-14.26594848632811</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -1394,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>455.0380911355491</v>
+        <v>455.5353902403583</v>
       </c>
       <c r="O18" t="b">
         <v>0</v>
@@ -1403,39 +1397,39 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>33768818.05</v>
+        <v>32350231.75</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="B19">
-        <v>455.0380911355491</v>
+        <v>455.5353902403583</v>
       </c>
       <c r="C19">
-        <v>456.0327099139874</v>
+        <v>460.0111746422832</v>
       </c>
       <c r="D19">
-        <v>452.5515441894532</v>
+        <v>454.5407714843749</v>
       </c>
       <c r="E19">
-        <v>452.5515441894531</v>
+        <v>454.540771484375</v>
       </c>
       <c r="F19">
-        <v>24927413</v>
+        <v>10264001</v>
       </c>
       <c r="G19">
-        <v>458.7181823730469</v>
+        <v>456.6294799804688</v>
       </c>
       <c r="H19">
-        <v>465.1168579101562</v>
+        <v>462.3734008789062</v>
       </c>
       <c r="I19">
-        <v>472.0516738891602</v>
+        <v>469.6415725708008</v>
       </c>
       <c r="J19">
-        <v>-13.33349151611327</v>
+        <v>-13.01209259033203</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -1447,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>451.5569101690854</v>
+        <v>448.5730590820312</v>
       </c>
       <c r="O19" t="b">
         <v>0</v>
@@ -1456,39 +1450,39 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>33101359.55</v>
+        <v>30843551.1</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="2">
-        <v>44921</v>
+        <v>44923</v>
       </c>
       <c r="B20">
-        <v>451.5569101690854</v>
+        <v>448.5730590820312</v>
       </c>
       <c r="C20">
-        <v>454.5407664036829</v>
+        <v>449.5676778383107</v>
       </c>
       <c r="D20">
-        <v>451.0596007966525</v>
+        <v>443.599965300634</v>
       </c>
       <c r="E20">
-        <v>454.04345703125</v>
+        <v>448.5730590820312</v>
       </c>
       <c r="F20">
-        <v>8793306</v>
+        <v>32578949</v>
       </c>
       <c r="G20">
-        <v>456.7289428710938</v>
+        <v>455.0380859375</v>
       </c>
       <c r="H20">
-        <v>463.5472015380859</v>
+        <v>459.7127960205078</v>
       </c>
       <c r="I20">
-        <v>470.9948913574219</v>
+        <v>467.8415298461914</v>
       </c>
       <c r="J20">
-        <v>-14.26594848632811</v>
+        <v>-12.80344390869141</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -1500,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>455.5353902403583</v>
+        <v>441.6107380272562</v>
       </c>
       <c r="O20" t="b">
         <v>0</v>
@@ -1509,39 +1503,39 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>32350231.75</v>
+        <v>29447641.3</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="2">
-        <v>44922</v>
+        <v>44924</v>
       </c>
       <c r="B21">
-        <v>455.5353902403583</v>
+        <v>441.6107380272562</v>
       </c>
       <c r="C21">
-        <v>460.0111746422832</v>
+        <v>447.0811413136298</v>
       </c>
       <c r="D21">
-        <v>454.5407714843749</v>
+        <v>440.1188098582451</v>
       </c>
       <c r="E21">
-        <v>454.540771484375</v>
+        <v>443.5999755859375</v>
       </c>
       <c r="F21">
-        <v>10264001</v>
+        <v>23020759</v>
       </c>
       <c r="G21">
-        <v>456.6294799804688</v>
+        <v>450.6617614746094</v>
       </c>
       <c r="H21">
-        <v>462.3734008789062</v>
+        <v>456.281362915039</v>
       </c>
       <c r="I21">
-        <v>469.6415725708008</v>
+        <v>465.3725387573242</v>
       </c>
       <c r="J21">
-        <v>-13.01209259033203</v>
+        <v>-14.71077728271484</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -1553,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>448.5730590820312</v>
+        <v>452.5515393243319</v>
       </c>
       <c r="O21" t="b">
         <v>0</v>
@@ -1562,39 +1556,39 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>30843551.1</v>
+        <v>28221008.6</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="2">
-        <v>44923</v>
+        <v>44925</v>
       </c>
       <c r="B22">
-        <v>448.5730590820312</v>
+        <v>452.5515393243319</v>
       </c>
       <c r="C22">
-        <v>449.5676778383107</v>
+        <v>454.0434674759506</v>
       </c>
       <c r="D22">
-        <v>443.599965300634</v>
+        <v>446.0865173339843</v>
       </c>
       <c r="E22">
-        <v>448.5730590820312</v>
+        <v>446.0865173339844</v>
       </c>
       <c r="F22">
-        <v>32578949</v>
+        <v>21683478</v>
       </c>
       <c r="G22">
-        <v>455.0380859375</v>
+        <v>449.3687561035156</v>
       </c>
       <c r="H22">
-        <v>459.7127960205078</v>
+        <v>454.0434692382813</v>
       </c>
       <c r="I22">
-        <v>467.8415298461914</v>
+        <v>463.3245529174804</v>
       </c>
       <c r="J22">
-        <v>-12.80344390869141</v>
+        <v>-13.95579681396481</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -1606,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>441.6107380272562</v>
+        <v>443.5999852868895</v>
       </c>
       <c r="O22" t="b">
         <v>0</v>
@@ -1615,39 +1609,39 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>29447641.3</v>
+        <v>27284702.65</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2">
-        <v>44924</v>
+        <v>44929</v>
       </c>
       <c r="B23">
-        <v>441.6107380272562</v>
+        <v>443.5999852868895</v>
       </c>
       <c r="C23">
-        <v>447.0811413136298</v>
+        <v>451.0596262950771</v>
       </c>
       <c r="D23">
-        <v>440.1188098582451</v>
+        <v>440.6161288836145</v>
       </c>
       <c r="E23">
-        <v>443.5999755859375</v>
+        <v>450.5623168945312</v>
       </c>
       <c r="F23">
-        <v>23020759</v>
+        <v>14885824</v>
       </c>
       <c r="G23">
-        <v>450.6617614746094</v>
+        <v>448.6725280761719</v>
       </c>
       <c r="H23">
-        <v>456.281362915039</v>
+        <v>452.7007354736328</v>
       </c>
       <c r="I23">
-        <v>465.3725387573242</v>
+        <v>461.6734176635742</v>
       </c>
       <c r="J23">
-        <v>-14.71077728271484</v>
+        <v>-13.00088958740236</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -1659,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>452.5515393243319</v>
+        <v>447.0811462402344</v>
       </c>
       <c r="O23" t="b">
         <v>0</v>
@@ -1668,39 +1662,39 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>28221008.6</v>
+        <v>26952892.6</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2">
-        <v>44925</v>
+        <v>44930</v>
       </c>
       <c r="B24">
-        <v>452.5515393243319</v>
+        <v>447.0811462402344</v>
       </c>
       <c r="C24">
-        <v>454.0434674759506</v>
+        <v>452.5515495868891</v>
       </c>
       <c r="D24">
-        <v>446.0865173339843</v>
+        <v>446.0865274499335</v>
       </c>
       <c r="E24">
-        <v>446.0865173339844</v>
+        <v>447.0811462402344</v>
       </c>
       <c r="F24">
-        <v>21683478</v>
+        <v>19188422</v>
       </c>
       <c r="G24">
-        <v>449.3687561035156</v>
+        <v>447.1806030273438</v>
       </c>
       <c r="H24">
-        <v>454.0434692382813</v>
+        <v>451.9050415039063</v>
       </c>
       <c r="I24">
-        <v>463.3245529174804</v>
+        <v>460.3921340942383</v>
       </c>
       <c r="J24">
-        <v>-13.95579681396481</v>
+        <v>-13.21153106689451</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -1712,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>443.5999852868895</v>
+        <v>456.5300242383451</v>
       </c>
       <c r="O24" t="b">
         <v>0</v>
@@ -1721,39 +1715,39 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>27284702.65</v>
+        <v>26279161.6</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="2">
-        <v>44929</v>
+        <v>44931</v>
       </c>
       <c r="B25">
-        <v>443.5999852868895</v>
+        <v>456.5300242383451</v>
       </c>
       <c r="C25">
-        <v>451.0596262950771</v>
+        <v>457.0273336329403</v>
       </c>
       <c r="D25">
-        <v>440.6161288836145</v>
+        <v>452.551549081584</v>
       </c>
       <c r="E25">
-        <v>450.5623168945312</v>
+        <v>456.03271484375</v>
       </c>
       <c r="F25">
-        <v>14885824</v>
+        <v>23549581</v>
       </c>
       <c r="G25">
-        <v>448.6725280761719</v>
+        <v>448.6725341796875</v>
       </c>
       <c r="H25">
-        <v>452.7007354736328</v>
+        <v>451.8553100585938</v>
       </c>
       <c r="I25">
-        <v>461.6734176635742</v>
+        <v>459.7067687988281</v>
       </c>
       <c r="J25">
-        <v>-13.00088958740236</v>
+        <v>-11.03423461914065</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -1765,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>447.0811462402344</v>
+        <v>452.551549081584</v>
       </c>
       <c r="O25" t="b">
         <v>0</v>
@@ -1774,39 +1768,39 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>26952892.6</v>
+        <v>25210529.3</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="2">
-        <v>44930</v>
+        <v>44932</v>
       </c>
       <c r="B26">
-        <v>447.0811462402344</v>
+        <v>452.551549081584</v>
       </c>
       <c r="C26">
-        <v>452.5515495868891</v>
+        <v>457.0273336329403</v>
       </c>
       <c r="D26">
-        <v>446.0865274499335</v>
+        <v>452.551549081584</v>
       </c>
       <c r="E26">
-        <v>447.0811462402344</v>
+        <v>456.03271484375</v>
       </c>
       <c r="F26">
-        <v>19188422</v>
+        <v>20886011</v>
       </c>
       <c r="G26">
-        <v>447.1806030273438</v>
+        <v>451.15908203125</v>
       </c>
       <c r="H26">
-        <v>451.9050415039063</v>
+        <v>450.9104217529297</v>
       </c>
       <c r="I26">
-        <v>460.3921340942383</v>
+        <v>459.194465637207</v>
       </c>
       <c r="J26">
-        <v>-13.21153106689451</v>
+        <v>-8.035383605957009</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -1818,48 +1812,48 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>456.5300242383451</v>
+        <v>465.4815772804054</v>
       </c>
       <c r="O26" t="b">
         <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>26279161.6</v>
+        <v>24559833.2</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="2">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="B27">
-        <v>456.5300242383451</v>
+        <v>465.4815772804054</v>
       </c>
       <c r="C27">
-        <v>457.0273336329403</v>
+        <v>478.4116210937501</v>
       </c>
       <c r="D27">
-        <v>452.551549081584</v>
+        <v>464.9842679029691</v>
       </c>
       <c r="E27">
-        <v>456.03271484375</v>
+        <v>478.41162109375</v>
       </c>
       <c r="F27">
-        <v>23549581</v>
+        <v>46666263</v>
       </c>
       <c r="G27">
-        <v>448.6725341796875</v>
+        <v>457.6241027832031</v>
       </c>
       <c r="H27">
-        <v>451.8553100585938</v>
+        <v>453.4964294433594</v>
       </c>
       <c r="I27">
-        <v>459.7067687988281</v>
+        <v>459.3066436767578</v>
       </c>
       <c r="J27">
-        <v>-11.03423461914065</v>
+        <v>-1.682540893554688</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -1871,60 +1865,60 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>452.551549081584</v>
+        <v>483.3847351074219</v>
       </c>
       <c r="O27" t="b">
         <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>25210529.3</v>
+        <v>24242205.4</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="2">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="B28">
-        <v>452.551549081584</v>
+        <v>483.3847351074219</v>
       </c>
       <c r="C28">
-        <v>457.0273336329403</v>
+        <v>484.3793539039392</v>
       </c>
       <c r="D28">
-        <v>452.551549081584</v>
+        <v>480.4008787178699</v>
       </c>
       <c r="E28">
-        <v>456.03271484375</v>
+        <v>483.3847351074219</v>
       </c>
       <c r="F28">
-        <v>20886011</v>
+        <v>32646014</v>
       </c>
       <c r="G28">
-        <v>451.15908203125</v>
+        <v>464.1885864257812</v>
       </c>
       <c r="H28">
-        <v>450.9104217529297</v>
+        <v>456.4305572509766</v>
       </c>
       <c r="I28">
-        <v>459.194465637207</v>
+        <v>459.9888793945312</v>
       </c>
       <c r="J28">
-        <v>-8.035383605957009</v>
+        <v>4.19970703125</v>
       </c>
       <c r="K28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
       </c>
       <c r="M28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>465.4815772804054</v>
+        <v>484.3793386610915</v>
       </c>
       <c r="O28" t="b">
         <v>0</v>
@@ -1933,51 +1927,51 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>24559833.2</v>
+        <v>25279751.7</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="2">
-        <v>44935</v>
+        <v>44937</v>
       </c>
       <c r="B29">
-        <v>465.4815772804054</v>
+        <v>484.3793386610915</v>
       </c>
       <c r="C29">
-        <v>478.4116210937501</v>
+        <v>485.3739574263093</v>
       </c>
       <c r="D29">
-        <v>464.9842679029691</v>
+        <v>479.4062448350023</v>
       </c>
       <c r="E29">
-        <v>478.41162109375</v>
+        <v>481.8927917480469</v>
       </c>
       <c r="F29">
-        <v>46666263</v>
+        <v>21051115</v>
       </c>
       <c r="G29">
-        <v>457.6241027832031</v>
+        <v>471.1509155273437</v>
       </c>
       <c r="H29">
-        <v>453.4964294433594</v>
+        <v>459.1657592773437</v>
       </c>
       <c r="I29">
-        <v>459.3066436767578</v>
+        <v>460.769580078125</v>
       </c>
       <c r="J29">
-        <v>-1.682540893554688</v>
+        <v>10.38133544921874</v>
       </c>
       <c r="K29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="b">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>483.3847351074219</v>
+        <v>484.8766377871476</v>
       </c>
       <c r="O29" t="b">
         <v>0</v>
@@ -1986,92 +1980,95 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>24242205.4</v>
+        <v>25863385.7</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="2">
-        <v>44936</v>
+        <v>44938</v>
       </c>
       <c r="B30">
-        <v>483.3847351074219</v>
+        <v>484.8766377871476</v>
       </c>
       <c r="C30">
-        <v>484.3793539039392</v>
+        <v>485.3739471592369</v>
       </c>
       <c r="D30">
-        <v>480.4008787178699</v>
+        <v>481.3954721825219</v>
       </c>
       <c r="E30">
-        <v>483.3847351074219</v>
+        <v>483.8820190429688</v>
       </c>
       <c r="F30">
-        <v>32646014</v>
+        <v>20963689</v>
       </c>
       <c r="G30">
-        <v>464.1885864257812</v>
+        <v>476.7207763671875</v>
       </c>
       <c r="H30">
-        <v>456.4305572509766</v>
+        <v>462.6966552734375</v>
       </c>
       <c r="I30">
-        <v>459.9888793945312</v>
+        <v>461.2047256469726</v>
       </c>
       <c r="J30">
-        <v>4.19970703125</v>
+        <v>15.51605072021488</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
       </c>
       <c r="L30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>484.3793386610915</v>
+        <v>504.2717186279297</v>
       </c>
       <c r="O30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="b">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>25279751.7</v>
+        <v>25252300.15</v>
+      </c>
+      <c r="R30">
+        <v>504.2717186279297</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="2">
-        <v>44937</v>
+        <v>44939</v>
       </c>
       <c r="B31">
-        <v>484.3793386610915</v>
+        <v>504.2717186279297</v>
       </c>
       <c r="C31">
-        <v>485.3739574263093</v>
+        <v>506.2609561767578</v>
       </c>
       <c r="D31">
-        <v>479.4062448350023</v>
+        <v>496.3147684326171</v>
       </c>
       <c r="E31">
-        <v>481.8927917480469</v>
+        <v>497.3093872070312</v>
       </c>
       <c r="F31">
-        <v>21051115</v>
+        <v>77606949</v>
       </c>
       <c r="G31">
-        <v>471.1509155273437</v>
+        <v>484.9761108398437</v>
       </c>
       <c r="H31">
-        <v>459.1657592773437</v>
+        <v>468.0675964355469</v>
       </c>
       <c r="I31">
-        <v>460.769580078125</v>
+        <v>462.174479675293</v>
       </c>
       <c r="J31">
-        <v>10.38133544921874</v>
+        <v>22.80163116455077</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
@@ -2083,48 +2080,48 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>484.8766377871476</v>
+        <v>503.2770894569925</v>
       </c>
       <c r="O31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="b">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25863385.7</v>
+        <v>24768652.65</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="2">
-        <v>44938</v>
+        <v>44942</v>
       </c>
       <c r="B32">
-        <v>484.8766377871476</v>
+        <v>503.2770894569925</v>
       </c>
       <c r="C32">
-        <v>485.3739471592369</v>
+        <v>505.2663269647277</v>
       </c>
       <c r="D32">
-        <v>481.3954721825219</v>
+        <v>500.2932331953898</v>
       </c>
       <c r="E32">
-        <v>483.8820190429688</v>
+        <v>502.282470703125</v>
       </c>
       <c r="F32">
-        <v>20963689</v>
+        <v>34373918</v>
       </c>
       <c r="G32">
-        <v>476.7207763671875</v>
+        <v>489.7502807617187</v>
       </c>
       <c r="H32">
-        <v>462.6966552734375</v>
+        <v>473.6871917724609</v>
       </c>
       <c r="I32">
-        <v>461.2047256469726</v>
+        <v>463.8653305053711</v>
       </c>
       <c r="J32">
-        <v>15.51605072021488</v>
+        <v>25.88495025634762</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
@@ -2136,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>504.2717186279297</v>
+        <v>501.2878621823745</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
@@ -2145,42 +2142,39 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>25252300.15</v>
-      </c>
-      <c r="R32">
-        <v>504.2717186279297</v>
+        <v>27437899.7</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="2">
-        <v>44939</v>
+        <v>44943</v>
       </c>
       <c r="B33">
-        <v>504.2717186279297</v>
+        <v>501.2878621823745</v>
       </c>
       <c r="C33">
-        <v>506.2609561767578</v>
+        <v>501.2878621823745</v>
       </c>
       <c r="D33">
-        <v>496.3147684326171</v>
+        <v>496.8120776986033</v>
       </c>
       <c r="E33">
-        <v>497.3093872070312</v>
+        <v>500.2932434082031</v>
       </c>
       <c r="F33">
-        <v>77606949</v>
+        <v>27770329</v>
       </c>
       <c r="G33">
-        <v>484.9761108398437</v>
+        <v>493.131982421875</v>
       </c>
       <c r="H33">
-        <v>468.0675964355469</v>
+        <v>478.6602844238281</v>
       </c>
       <c r="I33">
-        <v>462.174479675293</v>
+        <v>465.6805099487304</v>
       </c>
       <c r="J33">
-        <v>22.80163116455077</v>
+        <v>27.45147247314458</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -2192,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>503.2770894569925</v>
+        <v>539.0833841397617</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -2201,39 +2195,39 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>24768652.65</v>
+        <v>26776525.6</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="2">
-        <v>44942</v>
+        <v>44956</v>
       </c>
       <c r="B34">
-        <v>503.2770894569925</v>
+        <v>539.0833841397617</v>
       </c>
       <c r="C34">
-        <v>505.2663269647277</v>
+        <v>540.0780029296875</v>
       </c>
       <c r="D34">
-        <v>500.2932331953898</v>
+        <v>531.1264338203557</v>
       </c>
       <c r="E34">
-        <v>502.282470703125</v>
+        <v>540.0780029296875</v>
       </c>
       <c r="F34">
-        <v>34373918</v>
+        <v>124428936</v>
       </c>
       <c r="G34">
-        <v>489.7502807617187</v>
+        <v>504.7690246582031</v>
       </c>
       <c r="H34">
-        <v>473.6871917724609</v>
+        <v>487.9599700927735</v>
       </c>
       <c r="I34">
-        <v>463.8653305053711</v>
+        <v>469.9325057983398</v>
       </c>
       <c r="J34">
-        <v>25.88495025634762</v>
+        <v>34.8365188598633</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
@@ -2245,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>501.2878621823745</v>
+        <v>534.1102600097656</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
@@ -2254,39 +2248,39 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>27437899.7</v>
+        <v>27111264.1</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="2">
-        <v>44943</v>
+        <v>44957</v>
       </c>
       <c r="B35">
-        <v>501.2878621823745</v>
+        <v>534.1102600097656</v>
       </c>
       <c r="C35">
-        <v>501.2878621823745</v>
+        <v>535.1048787434896</v>
       </c>
       <c r="D35">
-        <v>496.8120776986033</v>
+        <v>518.1963602701823</v>
       </c>
       <c r="E35">
-        <v>500.2932434082031</v>
+        <v>519.1909790039062</v>
       </c>
       <c r="F35">
-        <v>27770329</v>
+        <v>72530854</v>
       </c>
       <c r="G35">
-        <v>493.131982421875</v>
+        <v>511.8308166503906</v>
       </c>
       <c r="H35">
-        <v>478.6602844238281</v>
+        <v>494.2757965087891</v>
       </c>
       <c r="I35">
-        <v>465.6805099487304</v>
+        <v>473.0655532836914</v>
       </c>
       <c r="J35">
-        <v>27.45147247314458</v>
+        <v>38.76526336669917</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
@@ -2298,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>539.0833841397617</v>
+        <v>529.1371867629717</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -2307,39 +2301,39 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>26776525.6</v>
+        <v>31775749.15</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="2">
-        <v>44956</v>
+        <v>44958</v>
       </c>
       <c r="B36">
-        <v>539.0833841397617</v>
+        <v>529.1371867629717</v>
       </c>
       <c r="C36">
-        <v>540.0780029296875</v>
+        <v>530.1318055350825</v>
       </c>
       <c r="D36">
-        <v>531.1264338203557</v>
+        <v>519.1909990418632</v>
       </c>
       <c r="E36">
-        <v>540.0780029296875</v>
+        <v>527.14794921875</v>
       </c>
       <c r="F36">
-        <v>124428936</v>
+        <v>33710990</v>
       </c>
       <c r="G36">
-        <v>504.7690246582031</v>
+        <v>517.7985290527344</v>
       </c>
       <c r="H36">
-        <v>487.9599700927735</v>
+        <v>501.387319946289</v>
       </c>
       <c r="I36">
-        <v>469.9325057983398</v>
+        <v>476.1488708496094</v>
       </c>
       <c r="J36">
-        <v>34.8365188598633</v>
+        <v>41.649658203125</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -2351,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>534.1102600097656</v>
+        <v>535.1048787434896</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
@@ -2360,39 +2354,39 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>27111264.1</v>
+        <v>33593159.65</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="2">
-        <v>44957</v>
+        <v>44959</v>
       </c>
       <c r="B37">
+        <v>535.1048787434896</v>
+      </c>
+      <c r="C37">
+        <v>539.0833536783854</v>
+      </c>
+      <c r="D37">
         <v>534.1102600097656</v>
       </c>
-      <c r="C37">
-        <v>535.1048787434896</v>
-      </c>
-      <c r="D37">
-        <v>518.1963602701823</v>
-      </c>
       <c r="E37">
-        <v>519.1909790039062</v>
+        <v>537.0941162109375</v>
       </c>
       <c r="F37">
-        <v>72530854</v>
+        <v>43077053</v>
       </c>
       <c r="G37">
-        <v>511.8308166503906</v>
+        <v>524.7608581542969</v>
       </c>
       <c r="H37">
-        <v>494.2757965087891</v>
+        <v>507.2555694580078</v>
       </c>
       <c r="I37">
-        <v>473.0655532836914</v>
+        <v>480.3759994506836</v>
       </c>
       <c r="J37">
-        <v>38.76526336669917</v>
+        <v>44.3848587036133</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
@@ -2404,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>529.1371867629717</v>
+        <v>537.0941364809156</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
@@ -2413,39 +2407,39 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>31775749.15</v>
+        <v>34576340.05</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="2">
-        <v>44958</v>
+        <v>44960</v>
       </c>
       <c r="B38">
-        <v>529.1371867629717</v>
+        <v>537.0941364809156</v>
       </c>
       <c r="C38">
-        <v>530.1318055350825</v>
+        <v>539.0833740234375</v>
       </c>
       <c r="D38">
-        <v>519.1909990418632</v>
+        <v>533.1156613958718</v>
       </c>
       <c r="E38">
-        <v>527.14794921875</v>
+        <v>539.0833740234375</v>
       </c>
       <c r="F38">
-        <v>33710990</v>
+        <v>31635865</v>
       </c>
       <c r="G38">
-        <v>517.7985290527344</v>
+        <v>532.5188842773438</v>
       </c>
       <c r="H38">
-        <v>501.387319946289</v>
+        <v>512.8254333496094</v>
       </c>
       <c r="I38">
-        <v>476.1488708496094</v>
+        <v>484.627995300293</v>
       </c>
       <c r="J38">
-        <v>41.649658203125</v>
+        <v>47.89088897705079</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
@@ -2457,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>535.1048787434896</v>
+        <v>529.1372074953957</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
@@ -2466,39 +2460,39 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>33593159.65</v>
+        <v>35483822.05</v>
       </c>
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="2">
-        <v>44959</v>
+        <v>44963</v>
       </c>
       <c r="B39">
-        <v>535.1048787434896</v>
+        <v>529.1372074953957</v>
       </c>
       <c r="C39">
-        <v>539.0833536783854</v>
+        <v>530.1318263064773</v>
       </c>
       <c r="D39">
-        <v>534.1102600097656</v>
+        <v>523.1694946289062</v>
       </c>
       <c r="E39">
-        <v>537.0941162109375</v>
+        <v>523.1694946289062</v>
       </c>
       <c r="F39">
-        <v>43077053</v>
+        <v>30870136</v>
       </c>
       <c r="G39">
-        <v>524.7608581542969</v>
+        <v>529.1371826171875</v>
       </c>
       <c r="H39">
-        <v>507.2555694580078</v>
+        <v>516.9531036376953</v>
       </c>
       <c r="I39">
-        <v>480.3759994506836</v>
+        <v>488.0594314575195</v>
       </c>
       <c r="J39">
-        <v>44.3848587036133</v>
+        <v>41.07775115966797</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
@@ -2510,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>537.0941364809156</v>
+        <v>521.1802266633305</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
@@ -2519,39 +2513,39 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>34576340.05</v>
+        <v>36625950</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="2">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="B40">
-        <v>537.0941364809156</v>
+        <v>521.1802266633305</v>
       </c>
       <c r="C40">
-        <v>539.0833740234375</v>
+        <v>525.1587016760277</v>
       </c>
       <c r="D40">
-        <v>533.1156613958718</v>
+        <v>519.1909891569819</v>
       </c>
       <c r="E40">
-        <v>539.0833740234375</v>
+        <v>520.1856079101562</v>
       </c>
       <c r="F40">
-        <v>31635865</v>
+        <v>23481767</v>
       </c>
       <c r="G40">
-        <v>532.5188842773438</v>
+        <v>529.3361083984375</v>
       </c>
       <c r="H40">
-        <v>512.8254333496094</v>
+        <v>520.583462524414</v>
       </c>
       <c r="I40">
-        <v>484.627995300293</v>
+        <v>491.6400588989258</v>
       </c>
       <c r="J40">
-        <v>47.89088897705079</v>
+        <v>37.69604949951179</v>
       </c>
       <c r="K40" t="b">
         <v>1</v>
@@ -2563,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>529.1372074953957</v>
+        <v>535.1048787434896</v>
       </c>
       <c r="O40" t="b">
         <v>1</v>
@@ -2572,39 +2566,39 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>35483822.05</v>
+        <v>37656256.75</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="2">
-        <v>44963</v>
+        <v>44965</v>
       </c>
       <c r="B41">
-        <v>529.1372074953957</v>
+        <v>535.1048787434896</v>
       </c>
       <c r="C41">
-        <v>530.1318263064773</v>
+        <v>537.0941162109375</v>
       </c>
       <c r="D41">
-        <v>523.1694946289062</v>
+        <v>531.1264038085938</v>
       </c>
       <c r="E41">
-        <v>523.1694946289062</v>
+        <v>537.0941162109375</v>
       </c>
       <c r="F41">
-        <v>30870136</v>
+        <v>35096191</v>
       </c>
       <c r="G41">
-        <v>529.1371826171875</v>
+        <v>531.325341796875</v>
       </c>
       <c r="H41">
-        <v>516.9531036376953</v>
+        <v>524.5619354248047</v>
       </c>
       <c r="I41">
-        <v>488.0594314575195</v>
+        <v>496.3147659301758</v>
       </c>
       <c r="J41">
-        <v>41.07775115966797</v>
+        <v>35.01057586669924</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
@@ -2616,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>521.1802266633305</v>
+        <v>537.0941162109375</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -2625,39 +2619,39 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>36625950</v>
+        <v>37201397.65</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="2">
-        <v>44964</v>
+        <v>44966</v>
       </c>
       <c r="B42">
-        <v>521.1802266633305</v>
+        <v>537.0941162109375</v>
       </c>
       <c r="C42">
-        <v>525.1587016760277</v>
+        <v>537.0941162109375</v>
       </c>
       <c r="D42">
-        <v>519.1909891569819</v>
+        <v>533.1156412760416</v>
       </c>
       <c r="E42">
-        <v>520.1856079101562</v>
+        <v>537.0941162109375</v>
       </c>
       <c r="F42">
-        <v>23481767</v>
+        <v>18861972</v>
       </c>
       <c r="G42">
-        <v>529.3361083984375</v>
+        <v>531.325341796875</v>
       </c>
       <c r="H42">
-        <v>520.583462524414</v>
+        <v>528.043099975586</v>
       </c>
       <c r="I42">
-        <v>491.6400588989258</v>
+        <v>500.8651458740234</v>
       </c>
       <c r="J42">
-        <v>37.69604949951179</v>
+        <v>30.4601959228516</v>
       </c>
       <c r="K42" t="b">
         <v>1</v>
@@ -2669,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>535.1048787434896</v>
+        <v>541.0726419151376</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
@@ -2678,39 +2672,39 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>37656256.75</v>
+        <v>37805169.25</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="2">
-        <v>44965</v>
+        <v>44967</v>
       </c>
       <c r="B43">
-        <v>535.1048787434896</v>
+        <v>541.0726419151376</v>
       </c>
       <c r="C43">
-        <v>537.0941162109375</v>
+        <v>543.0618795692374</v>
       </c>
       <c r="D43">
-        <v>531.1264038085938</v>
+        <v>538.0887854339879</v>
       </c>
       <c r="E43">
-        <v>537.0941162109375</v>
+        <v>542.0672607421875</v>
       </c>
       <c r="F43">
-        <v>35096191</v>
+        <v>28495684</v>
       </c>
       <c r="G43">
-        <v>531.325341796875</v>
+        <v>531.922119140625</v>
       </c>
       <c r="H43">
-        <v>524.5619354248047</v>
+        <v>532.2205017089843</v>
       </c>
       <c r="I43">
-        <v>496.3147659301758</v>
+        <v>505.4403930664063</v>
       </c>
       <c r="J43">
-        <v>35.01057586669924</v>
+        <v>26.48172607421873</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
@@ -2722,48 +2716,51 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>537.0941162109375</v>
+        <v>541.072601374769</v>
       </c>
       <c r="O43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>37201397.65</v>
+        <v>37664093.95</v>
+      </c>
+      <c r="S43">
+        <v>541.072601374769</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="2">
-        <v>44966</v>
+        <v>44970</v>
       </c>
       <c r="B44">
-        <v>537.0941162109375</v>
+        <v>541.072601374769</v>
       </c>
       <c r="C44">
-        <v>537.0941162109375</v>
+        <v>541.072601374769</v>
       </c>
       <c r="D44">
-        <v>533.1156412760416</v>
+        <v>535.104888859606</v>
       </c>
       <c r="E44">
-        <v>537.0941162109375</v>
+        <v>538.0887451171875</v>
       </c>
       <c r="F44">
-        <v>18861972</v>
+        <v>22768977</v>
       </c>
       <c r="G44">
-        <v>531.325341796875</v>
+        <v>534.9059692382813</v>
       </c>
       <c r="H44">
-        <v>528.043099975586</v>
+        <v>532.0215759277344</v>
       </c>
       <c r="I44">
-        <v>500.8651458740234</v>
+        <v>509.9907730102539</v>
       </c>
       <c r="J44">
-        <v>30.4601959228516</v>
+        <v>24.91519622802736</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
@@ -2784,12 +2781,15 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>37805169.25</v>
+        <v>38344586.95</v>
+      </c>
+      <c r="R44">
+        <v>541.0726419151376</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="2">
-        <v>44967</v>
+        <v>44971</v>
       </c>
       <c r="B45">
         <v>541.0726419151376</v>
@@ -2798,25 +2798,25 @@
         <v>543.0618795692374</v>
       </c>
       <c r="D45">
-        <v>538.0887854339879</v>
+        <v>540.0780230880878</v>
       </c>
       <c r="E45">
         <v>542.0672607421875</v>
       </c>
       <c r="F45">
-        <v>28495684</v>
+        <v>21883297</v>
       </c>
       <c r="G45">
-        <v>531.922119140625</v>
+        <v>539.2822998046875</v>
       </c>
       <c r="H45">
-        <v>532.2205017089843</v>
+        <v>534.3092041015625</v>
       </c>
       <c r="I45">
-        <v>505.4403930664063</v>
+        <v>514.2925003051757</v>
       </c>
       <c r="J45">
-        <v>26.48172607421873</v>
+        <v>24.98979949951172</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
@@ -2828,51 +2828,48 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>541.072601374769</v>
+        <v>523.1694845145089</v>
       </c>
       <c r="O45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>37664093.95</v>
-      </c>
-      <c r="S45">
-        <v>541.072601374769</v>
+        <v>38523614.7</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="2">
-        <v>44970</v>
+        <v>44972</v>
       </c>
       <c r="B46">
-        <v>541.072601374769</v>
+        <v>523.1694845145089</v>
       </c>
       <c r="C46">
-        <v>541.072601374769</v>
+        <v>529.137197265625</v>
       </c>
       <c r="D46">
-        <v>535.104888859606</v>
+        <v>519.1910093470982</v>
       </c>
       <c r="E46">
-        <v>538.0887451171875</v>
+        <v>522.1748657226562</v>
       </c>
       <c r="F46">
-        <v>22768977</v>
+        <v>61796793</v>
       </c>
       <c r="G46">
-        <v>534.9059692382813</v>
+        <v>536.2984497070313</v>
       </c>
       <c r="H46">
-        <v>532.0215759277344</v>
+        <v>533.8118957519531</v>
       </c>
       <c r="I46">
-        <v>509.9907730102539</v>
+        <v>517.5996078491211</v>
       </c>
       <c r="J46">
-        <v>24.91519622802736</v>
+        <v>18.69884185791022</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
@@ -2884,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>541.0726419151376</v>
+        <v>525.15869140625</v>
       </c>
       <c r="O46" t="b">
         <v>1</v>
@@ -2893,42 +2890,39 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>38344586.95</v>
-      </c>
-      <c r="R46">
-        <v>541.0726419151376</v>
+        <v>38440300.5</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="2">
-        <v>44971</v>
+        <v>44973</v>
       </c>
       <c r="B47">
-        <v>541.0726419151376</v>
+        <v>525.15869140625</v>
       </c>
       <c r="C47">
-        <v>543.0618795692374</v>
+        <v>528.1425476074219</v>
       </c>
       <c r="D47">
-        <v>540.0780230880878</v>
+        <v>521.1802164713541</v>
       </c>
       <c r="E47">
-        <v>542.0672607421875</v>
+        <v>525.15869140625</v>
       </c>
       <c r="F47">
-        <v>21883297</v>
+        <v>29975138</v>
       </c>
       <c r="G47">
-        <v>539.2822998046875</v>
+        <v>533.9113647460938</v>
       </c>
       <c r="H47">
-        <v>534.3092041015625</v>
+        <v>532.6183532714844</v>
       </c>
       <c r="I47">
-        <v>514.2925003051757</v>
+        <v>519.9369613647461</v>
       </c>
       <c r="J47">
-        <v>24.98979949951172</v>
+        <v>13.97440338134766</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
@@ -2940,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>523.1694845145089</v>
+        <v>521.1802370520633</v>
       </c>
       <c r="O47" t="b">
         <v>1</v>
@@ -2949,39 +2943,39 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>38523614.7</v>
+        <v>40485839.6</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="2">
-        <v>44972</v>
+        <v>44974</v>
       </c>
       <c r="B48">
-        <v>523.1694845145089</v>
+        <v>521.1802370520633</v>
       </c>
       <c r="C48">
-        <v>529.137197265625</v>
+        <v>521.1802370520633</v>
       </c>
       <c r="D48">
-        <v>519.1910093470982</v>
+        <v>513.2232868680624</v>
       </c>
       <c r="E48">
-        <v>522.1748657226562</v>
+        <v>515.2125244140625</v>
       </c>
       <c r="F48">
-        <v>61796793</v>
+        <v>28121975</v>
       </c>
       <c r="G48">
-        <v>536.2984497070313</v>
+        <v>528.5404174804687</v>
       </c>
       <c r="H48">
-        <v>533.8118957519531</v>
+        <v>530.2312683105469</v>
       </c>
       <c r="I48">
-        <v>517.5996078491211</v>
+        <v>521.5283508300781</v>
       </c>
       <c r="J48">
-        <v>18.69884185791022</v>
+        <v>7.01206665039058</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
@@ -2993,422 +2987,422 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>525.15869140625</v>
+        <v>511.2340392476124</v>
       </c>
       <c r="O48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>38440300.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>39651283.35</v>
+      </c>
+      <c r="S48">
+        <v>511.2340392476124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>44973</v>
+        <v>44977</v>
       </c>
       <c r="B49">
-        <v>525.15869140625</v>
+        <v>511.2340392476124</v>
       </c>
       <c r="C49">
-        <v>528.1425476074219</v>
+        <v>516.2071330146125</v>
       </c>
       <c r="D49">
+        <v>508.2501829874123</v>
+      </c>
+      <c r="E49">
+        <v>514.2178955078125</v>
+      </c>
+      <c r="F49">
+        <v>20065156</v>
+      </c>
+      <c r="G49">
+        <v>523.7662475585937</v>
+      </c>
+      <c r="H49">
+        <v>529.3361083984375</v>
+      </c>
+      <c r="I49">
+        <v>523.1446060180664</v>
+      </c>
+      <c r="J49">
+        <v>0.621641540527321</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>512.2286478678385</v>
+      </c>
+      <c r="O49" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>39425081.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B50">
+        <v>512.2286478678385</v>
+      </c>
+      <c r="C50">
+        <v>514.2178853352865</v>
+      </c>
+      <c r="D50">
+        <v>510.2394104003906</v>
+      </c>
+      <c r="E50">
+        <v>513.2232666015625</v>
+      </c>
+      <c r="F50">
+        <v>13504100</v>
+      </c>
+      <c r="G50">
+        <v>517.9974487304687</v>
+      </c>
+      <c r="H50">
+        <v>528.6398742675781</v>
+      </c>
+      <c r="I50">
+        <v>524.611668395996</v>
+      </c>
+      <c r="J50">
+        <v>-6.614219665527344</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" t="b">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>503.2771097217086</v>
+      </c>
+      <c r="O50" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>39375783.45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B51">
+        <v>503.2771097217086</v>
+      </c>
+      <c r="C51">
+        <v>506.2609661034579</v>
+      </c>
+      <c r="D51">
+        <v>502.2824909277921</v>
+      </c>
+      <c r="E51">
+        <v>504.271728515625</v>
+      </c>
+      <c r="F51">
+        <v>24575245</v>
+      </c>
+      <c r="G51">
+        <v>514.4168212890625</v>
+      </c>
+      <c r="H51">
+        <v>525.3576354980469</v>
+      </c>
+      <c r="I51">
+        <v>524.9597854614258</v>
+      </c>
+      <c r="J51">
+        <v>-10.54296417236333</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>509.2448117760618</v>
+      </c>
+      <c r="O51" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>39002804</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="2">
+        <v>44980</v>
+      </c>
+      <c r="B52">
+        <v>509.2448117760618</v>
+      </c>
+      <c r="C52">
+        <v>518.1963807330629</v>
+      </c>
+      <c r="D52">
+        <v>507.2555742300616</v>
+      </c>
+      <c r="E52">
+        <v>515.2125244140625</v>
+      </c>
+      <c r="F52">
+        <v>25376835</v>
+      </c>
+      <c r="G52">
+        <v>512.427587890625</v>
+      </c>
+      <c r="H52">
+        <v>523.1694763183593</v>
+      </c>
+      <c r="I52">
+        <v>525.6062881469727</v>
+      </c>
+      <c r="J52">
+        <v>-13.17870025634772</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>521.1802269026725</v>
+      </c>
+      <c r="O52" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>36351218.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B53">
+        <v>521.1802269026725</v>
+      </c>
+      <c r="C53">
+        <v>522.1748456563035</v>
+      </c>
+      <c r="D53">
+        <v>508.2501831054688</v>
+      </c>
+      <c r="E53">
+        <v>508.2501831054688</v>
+      </c>
+      <c r="F53">
+        <v>41692491</v>
+      </c>
+      <c r="G53">
+        <v>511.0351196289063</v>
+      </c>
+      <c r="H53">
+        <v>519.7877685546875</v>
+      </c>
+      <c r="I53">
+        <v>526.0041351318359</v>
+      </c>
+      <c r="J53">
+        <v>-14.96901550292966</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>501.287841796875</v>
+      </c>
+      <c r="O53" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>35901364.65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B54">
+        <v>501.287841796875</v>
+      </c>
+      <c r="C54">
+        <v>519.1909790039062</v>
+      </c>
+      <c r="D54">
+        <v>501.287841796875</v>
+      </c>
+      <c r="E54">
+        <v>519.1909790039062</v>
+      </c>
+      <c r="F54">
+        <v>39560848</v>
+      </c>
+      <c r="G54">
+        <v>512.029736328125</v>
+      </c>
+      <c r="H54">
+        <v>517.8979919433593</v>
+      </c>
+      <c r="I54">
+        <v>524.9597839355469</v>
+      </c>
+      <c r="J54">
+        <v>-12.9300476074219</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>516.2071533203125</v>
+      </c>
+      <c r="O54" t="b">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>36597472.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="2">
+        <v>44987</v>
+      </c>
+      <c r="B55">
+        <v>516.2071533203125</v>
+      </c>
+      <c r="C55">
+        <v>517.2017721128373</v>
+      </c>
+      <c r="D55">
+        <v>512.2286781502138</v>
+      </c>
+      <c r="E55">
+        <v>516.2071533203125</v>
+      </c>
+      <c r="F55">
+        <v>16558784</v>
+      </c>
+      <c r="G55">
+        <v>512.626513671875</v>
+      </c>
+      <c r="H55">
+        <v>515.3119812011719</v>
+      </c>
+      <c r="I55">
+        <v>524.8105926513672</v>
+      </c>
+      <c r="J55">
+        <v>-12.18407897949214</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55">
         <v>521.1802164713541</v>
       </c>
-      <c r="E49">
-        <v>525.15869140625</v>
-      </c>
-      <c r="F49">
-        <v>29975138</v>
-      </c>
-      <c r="G49">
-        <v>533.9113647460938</v>
-      </c>
-      <c r="H49">
-        <v>532.6183532714844</v>
-      </c>
-      <c r="I49">
-        <v>519.9369613647461</v>
-      </c>
-      <c r="J49">
-        <v>13.97440338134766</v>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="b">
-        <v>1</v>
-      </c>
-      <c r="M49" t="b">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>521.1802370520633</v>
-      </c>
-      <c r="O49" t="b">
-        <v>1</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>40485839.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
-      <c r="A50" s="2">
-        <v>44974</v>
-      </c>
-      <c r="B50">
-        <v>521.1802370520633</v>
-      </c>
-      <c r="C50">
-        <v>521.1802370520633</v>
-      </c>
-      <c r="D50">
-        <v>513.2232868680624</v>
-      </c>
-      <c r="E50">
-        <v>515.2125244140625</v>
-      </c>
-      <c r="F50">
-        <v>28121975</v>
-      </c>
-      <c r="G50">
-        <v>528.5404174804687</v>
-      </c>
-      <c r="H50">
-        <v>530.2312683105469</v>
-      </c>
-      <c r="I50">
-        <v>521.5283508300781</v>
-      </c>
-      <c r="J50">
-        <v>7.01206665039058</v>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="b">
-        <v>1</v>
-      </c>
-      <c r="M50" t="b">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>511.2340392476124</v>
-      </c>
-      <c r="O50" t="b">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>39651283.35</v>
-      </c>
-      <c r="S50">
-        <v>511.2340392476124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
-      <c r="A51" s="2">
-        <v>44977</v>
-      </c>
-      <c r="B51">
-        <v>511.2340392476124</v>
-      </c>
-      <c r="C51">
-        <v>516.2071330146125</v>
-      </c>
-      <c r="D51">
-        <v>508.2501829874123</v>
-      </c>
-      <c r="E51">
-        <v>514.2178955078125</v>
-      </c>
-      <c r="F51">
-        <v>20065156</v>
-      </c>
-      <c r="G51">
-        <v>523.7662475585937</v>
-      </c>
-      <c r="H51">
-        <v>529.3361083984375</v>
-      </c>
-      <c r="I51">
-        <v>523.1446060180664</v>
-      </c>
-      <c r="J51">
-        <v>0.621641540527321</v>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="b">
-        <v>1</v>
-      </c>
-      <c r="M51" t="b">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>512.2286478678385</v>
-      </c>
-      <c r="O51" t="b">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>39425081.4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
-      <c r="A52" s="2">
-        <v>44978</v>
-      </c>
-      <c r="B52">
-        <v>512.2286478678385</v>
-      </c>
-      <c r="C52">
-        <v>514.2178853352865</v>
-      </c>
-      <c r="D52">
-        <v>510.2394104003906</v>
-      </c>
-      <c r="E52">
+      <c r="O55" t="b">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>32354068.35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B56">
+        <v>521.1802164713541</v>
+      </c>
+      <c r="C56">
+        <v>522.1748352050781</v>
+      </c>
+      <c r="D56">
         <v>513.2232666015625</v>
       </c>
-      <c r="F52">
-        <v>13504100</v>
-      </c>
-      <c r="G52">
-        <v>517.9974487304687</v>
-      </c>
-      <c r="H52">
-        <v>528.6398742675781</v>
-      </c>
-      <c r="I52">
-        <v>524.611668395996</v>
-      </c>
-      <c r="J52">
-        <v>-6.614219665527344</v>
-      </c>
-      <c r="K52" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" t="b">
-        <v>1</v>
-      </c>
-      <c r="M52" t="b">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>503.2771097217086</v>
-      </c>
-      <c r="O52" t="b">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>39375783.45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
-      <c r="A53" s="2">
-        <v>44979</v>
-      </c>
-      <c r="B53">
-        <v>503.2771097217086</v>
-      </c>
-      <c r="C53">
-        <v>506.2609661034579</v>
-      </c>
-      <c r="D53">
-        <v>502.2824909277921</v>
-      </c>
-      <c r="E53">
-        <v>504.271728515625</v>
-      </c>
-      <c r="F53">
-        <v>24575245</v>
-      </c>
-      <c r="G53">
+      <c r="E56">
+        <v>513.2232666015625</v>
+      </c>
+      <c r="F56">
+        <v>23253895</v>
+      </c>
+      <c r="G56">
         <v>514.4168212890625</v>
       </c>
-      <c r="H53">
-        <v>525.3576354980469</v>
-      </c>
-      <c r="I53">
-        <v>524.9597854614258</v>
-      </c>
-      <c r="J53">
-        <v>-10.54296417236333</v>
-      </c>
-      <c r="K53" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" t="b">
-        <v>0</v>
-      </c>
-      <c r="M53" t="b">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>509.2448117760618</v>
-      </c>
-      <c r="O53" t="b">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>39002804</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
-      <c r="A54" s="2">
-        <v>44980</v>
-      </c>
-      <c r="B54">
-        <v>509.2448117760618</v>
-      </c>
-      <c r="C54">
-        <v>518.1963807330629</v>
-      </c>
-      <c r="D54">
-        <v>507.2555742300616</v>
-      </c>
-      <c r="E54">
-        <v>515.2125244140625</v>
-      </c>
-      <c r="F54">
-        <v>25376835</v>
-      </c>
-      <c r="G54">
-        <v>512.427587890625</v>
-      </c>
-      <c r="H54">
-        <v>523.1694763183593</v>
-      </c>
-      <c r="I54">
-        <v>525.6062881469727</v>
-      </c>
-      <c r="J54">
-        <v>-13.17870025634772</v>
-      </c>
-      <c r="K54" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" t="b">
-        <v>0</v>
-      </c>
-      <c r="M54" t="b">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>521.1802269026725</v>
-      </c>
-      <c r="O54" t="b">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>36351218.8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
-      <c r="A55" s="2">
-        <v>44981</v>
-      </c>
-      <c r="B55">
-        <v>521.1802269026725</v>
-      </c>
-      <c r="C55">
-        <v>522.1748456563035</v>
-      </c>
-      <c r="D55">
-        <v>508.2501831054688</v>
-      </c>
-      <c r="E55">
-        <v>508.2501831054688</v>
-      </c>
-      <c r="F55">
-        <v>41692491</v>
-      </c>
-      <c r="G55">
-        <v>511.0351196289063</v>
-      </c>
-      <c r="H55">
-        <v>519.7877685546875</v>
-      </c>
-      <c r="I55">
-        <v>526.0041351318359</v>
-      </c>
-      <c r="J55">
-        <v>-14.96901550292966</v>
-      </c>
-      <c r="K55" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" t="b">
-        <v>0</v>
-      </c>
-      <c r="M55" t="b">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>501.287841796875</v>
-      </c>
-      <c r="O55" t="b">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>35901364.65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
-      <c r="A56" s="2">
-        <v>44986</v>
-      </c>
-      <c r="B56">
-        <v>501.287841796875</v>
-      </c>
-      <c r="C56">
-        <v>519.1909790039062</v>
-      </c>
-      <c r="D56">
-        <v>501.287841796875</v>
-      </c>
-      <c r="E56">
-        <v>519.1909790039062</v>
-      </c>
-      <c r="F56">
-        <v>39560848</v>
-      </c>
-      <c r="G56">
-        <v>512.029736328125</v>
-      </c>
       <c r="H56">
-        <v>517.8979919433593</v>
+        <v>514.4168212890625</v>
       </c>
       <c r="I56">
-        <v>524.9597839355469</v>
+        <v>524.1143585205078</v>
       </c>
       <c r="J56">
-        <v>-12.9300476074219</v>
+        <v>-9.697537231445381</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -3420,48 +3414,48 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>516.2071533203125</v>
+        <v>517.2017923014636</v>
       </c>
       <c r="O56" t="b">
         <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>36597472.75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>29555464.85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>44987</v>
+        <v>44991</v>
       </c>
       <c r="B57">
-        <v>516.2071533203125</v>
+        <v>517.2017923014636</v>
       </c>
       <c r="C57">
-        <v>517.2017721128373</v>
+        <v>521.1802676268594</v>
       </c>
       <c r="D57">
-        <v>512.2286781502138</v>
+        <v>514.2179358074167</v>
       </c>
       <c r="E57">
-        <v>516.2071533203125</v>
+        <v>518.1964111328125</v>
       </c>
       <c r="F57">
-        <v>16558784</v>
+        <v>21922085</v>
       </c>
       <c r="G57">
-        <v>512.626513671875</v>
+        <v>515.0135986328125</v>
       </c>
       <c r="H57">
-        <v>515.3119812011719</v>
+        <v>513.7205932617187</v>
       </c>
       <c r="I57">
-        <v>524.8105926513672</v>
+        <v>523.1694732666016</v>
       </c>
       <c r="J57">
-        <v>-12.18407897949214</v>
+        <v>-8.15587463378904</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -3473,48 +3467,48 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>521.1802164713541</v>
+        <v>518.1963804987552</v>
       </c>
       <c r="O57" t="b">
         <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>32354068.35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>29032610.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="B58">
-        <v>521.1802164713541</v>
+        <v>518.1963804987552</v>
       </c>
       <c r="C58">
-        <v>522.1748352050781</v>
+        <v>523.1694743615071</v>
       </c>
       <c r="D58">
-        <v>513.2232666015625</v>
+        <v>516.2071429536543</v>
       </c>
       <c r="E58">
-        <v>513.2232666015625</v>
+        <v>521.1802368164062</v>
       </c>
       <c r="F58">
-        <v>23253895</v>
+        <v>24861078</v>
       </c>
       <c r="G58">
-        <v>514.4168212890625</v>
+        <v>517.599609375</v>
       </c>
       <c r="H58">
-        <v>514.4168212890625</v>
+        <v>514.3173645019531</v>
       </c>
       <c r="I58">
-        <v>524.1143585205078</v>
+        <v>522.27431640625</v>
       </c>
       <c r="J58">
-        <v>-9.697537231445381</v>
+        <v>-4.674707031250023</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -3526,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>517.2017923014636</v>
+        <v>518.1964111328125</v>
       </c>
       <c r="O58" t="b">
         <v>0</v>
@@ -3535,39 +3529,39 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>29555464.85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
+        <v>27974861.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B59">
-        <v>517.2017923014636</v>
+        <v>518.1964111328125</v>
       </c>
       <c r="C59">
-        <v>521.1802676268594</v>
+        <v>520.1856487955105</v>
       </c>
       <c r="D59">
-        <v>514.2179358074167</v>
+        <v>515.2125546387656</v>
       </c>
       <c r="E59">
         <v>518.1964111328125</v>
       </c>
       <c r="F59">
-        <v>21922085</v>
+        <v>24512408</v>
       </c>
       <c r="G59">
-        <v>515.0135986328125</v>
+        <v>517.4006958007812</v>
       </c>
       <c r="H59">
-        <v>513.7205932617187</v>
+        <v>514.7152160644531</v>
       </c>
       <c r="I59">
-        <v>523.1694732666016</v>
+        <v>522.0256622314453</v>
       </c>
       <c r="J59">
-        <v>-8.15587463378904</v>
+        <v>-4.624966430664017</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -3579,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>518.1963804987552</v>
+        <v>522.1748352050781</v>
       </c>
       <c r="O59" t="b">
         <v>0</v>
@@ -3588,39 +3582,39 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>29032610.1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>27636122.35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>44992</v>
+        <v>44994</v>
       </c>
       <c r="B60">
-        <v>518.1963804987552</v>
+        <v>522.1748352050781</v>
       </c>
       <c r="C60">
-        <v>523.1694743615071</v>
+        <v>523.1694539388021</v>
       </c>
       <c r="D60">
-        <v>516.2071429536543</v>
+        <v>519.1909790039062</v>
       </c>
       <c r="E60">
-        <v>521.1802368164062</v>
+        <v>519.1909790039062</v>
       </c>
       <c r="F60">
-        <v>24861078</v>
+        <v>21557577</v>
       </c>
       <c r="G60">
-        <v>517.599609375</v>
+        <v>517.9974609375</v>
       </c>
       <c r="H60">
-        <v>514.3173645019531</v>
+        <v>515.3119873046875</v>
       </c>
       <c r="I60">
-        <v>522.27431640625</v>
+        <v>521.9759307861328</v>
       </c>
       <c r="J60">
-        <v>-4.674707031250023</v>
+        <v>-3.978469848632812</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -3632,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>518.1964111328125</v>
+        <v>512.2286785043935</v>
       </c>
       <c r="O60" t="b">
         <v>0</v>
@@ -3641,39 +3635,39 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>27974861.7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
+        <v>27318235.95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>44993</v>
+        <v>44995</v>
       </c>
       <c r="B61">
-        <v>518.1964111328125</v>
+        <v>512.2286785043935</v>
       </c>
       <c r="C61">
-        <v>520.1856487955105</v>
+        <v>513.223297297606</v>
       </c>
       <c r="D61">
-        <v>515.2125546387656</v>
+        <v>508.2502033315439</v>
       </c>
       <c r="E61">
-        <v>518.1964111328125</v>
+        <v>510.2394409179688</v>
       </c>
       <c r="F61">
-        <v>24512408</v>
+        <v>24045605</v>
       </c>
       <c r="G61">
         <v>517.4006958007812</v>
       </c>
       <c r="H61">
-        <v>514.7152160644531</v>
+        <v>515.9087585449219</v>
       </c>
       <c r="I61">
-        <v>522.0256622314453</v>
+        <v>520.6331970214844</v>
       </c>
       <c r="J61">
-        <v>-4.624966430664017</v>
+        <v>-3.23250122070317</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -3685,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>522.1748352050781</v>
+        <v>510.2394104003906</v>
       </c>
       <c r="O61" t="b">
         <v>0</v>
@@ -3694,39 +3688,39 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>27636122.35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>27222026.45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>44994</v>
+        <v>44998</v>
       </c>
       <c r="B62">
-        <v>522.1748352050781</v>
+        <v>510.2394104003906</v>
       </c>
       <c r="C62">
-        <v>523.1694539388021</v>
+        <v>515.2125040690104</v>
       </c>
       <c r="D62">
-        <v>519.1909790039062</v>
+        <v>506.2609354654948</v>
       </c>
       <c r="E62">
-        <v>519.1909790039062</v>
+        <v>513.2232666015625</v>
       </c>
       <c r="F62">
-        <v>21557577</v>
+        <v>21466947</v>
       </c>
       <c r="G62">
-        <v>517.9974609375</v>
+        <v>516.4060668945312</v>
       </c>
       <c r="H62">
-        <v>515.3119873046875</v>
+        <v>515.7098327636719</v>
       </c>
       <c r="I62">
-        <v>521.9759307861328</v>
+        <v>519.4396545410157</v>
       </c>
       <c r="J62">
-        <v>-3.978469848632812</v>
+        <v>-3.03358764648442</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -3738,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>512.2286785043935</v>
+        <v>508.2502035103592</v>
       </c>
       <c r="O62" t="b">
         <v>0</v>
@@ -3747,39 +3741,39 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>27318235.95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>26669497.15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="2">
-        <v>44995</v>
+        <v>44999</v>
       </c>
       <c r="B63">
-        <v>512.2286785043935</v>
+        <v>508.2502035103592</v>
       </c>
       <c r="C63">
-        <v>513.223297297606</v>
+        <v>511.2340598910462</v>
       </c>
       <c r="D63">
-        <v>508.2502033315439</v>
+        <v>507.2555847167968</v>
       </c>
       <c r="E63">
-        <v>510.2394409179688</v>
+        <v>507.2555847167969</v>
       </c>
       <c r="F63">
-        <v>24045605</v>
+        <v>20474770</v>
       </c>
       <c r="G63">
-        <v>517.4006958007812</v>
+        <v>513.6211364746093</v>
       </c>
       <c r="H63">
-        <v>515.9087585449219</v>
+        <v>515.6103729248047</v>
       </c>
       <c r="I63">
-        <v>520.6331970214844</v>
+        <v>517.699070739746</v>
       </c>
       <c r="J63">
-        <v>-3.23250122070317</v>
+        <v>-4.077934265136719</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -3791,48 +3785,48 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>510.2394104003906</v>
+        <v>512.228658119993</v>
       </c>
       <c r="O63" t="b">
         <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>27222026.45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>26799745.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="2">
-        <v>44998</v>
+        <v>45000</v>
       </c>
       <c r="B64">
-        <v>510.2394104003906</v>
+        <v>512.228658119993</v>
       </c>
       <c r="C64">
-        <v>515.2125040690104</v>
+        <v>513.2232768736241</v>
       </c>
       <c r="D64">
-        <v>506.2609354654948</v>
+        <v>507.2555643518377</v>
       </c>
       <c r="E64">
-        <v>513.2232666015625</v>
+        <v>508.2501831054688</v>
       </c>
       <c r="F64">
-        <v>21466947</v>
+        <v>23208597</v>
       </c>
       <c r="G64">
-        <v>516.4060668945312</v>
+        <v>511.6318908691406</v>
       </c>
       <c r="H64">
-        <v>515.7098327636719</v>
+        <v>514.5162933349609</v>
       </c>
       <c r="I64">
-        <v>519.4396545410157</v>
+        <v>516.2071426391601</v>
       </c>
       <c r="J64">
-        <v>-3.03358764648442</v>
+        <v>-4.575251770019463</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -3844,48 +3838,48 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>508.2502035103592</v>
+        <v>505</v>
       </c>
       <c r="O64" t="b">
         <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>26669497.15</v>
+        <v>26398700.2</v>
       </c>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="2">
-        <v>44999</v>
+        <v>45001</v>
       </c>
       <c r="B65">
-        <v>508.2502035103592</v>
+        <v>505</v>
       </c>
       <c r="C65">
-        <v>511.2340598910462</v>
+        <v>510</v>
       </c>
       <c r="D65">
-        <v>507.2555847167968</v>
+        <v>504</v>
       </c>
       <c r="E65">
-        <v>507.2555847167969</v>
+        <v>505</v>
       </c>
       <c r="F65">
-        <v>20474770</v>
+        <v>21965994</v>
       </c>
       <c r="G65">
-        <v>513.6211364746093</v>
+        <v>508.7936950683594</v>
       </c>
       <c r="H65">
-        <v>515.6103729248047</v>
+        <v>513.3955780029297</v>
       </c>
       <c r="I65">
-        <v>517.699070739746</v>
+        <v>514.3537796020507</v>
       </c>
       <c r="J65">
-        <v>-4.077934265136719</v>
+        <v>-5.560084533691338</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -3897,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>512.228658119993</v>
+        <v>516</v>
       </c>
       <c r="O65" t="b">
         <v>0</v>
@@ -3906,39 +3900,39 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>26799745.9</v>
+        <v>26420681.2</v>
       </c>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="2">
-        <v>45000</v>
+        <v>45002</v>
       </c>
       <c r="B66">
-        <v>512.228658119993</v>
+        <v>516</v>
       </c>
       <c r="C66">
-        <v>513.2232768736241</v>
+        <v>518</v>
       </c>
       <c r="D66">
-        <v>507.2555643518377</v>
+        <v>513</v>
       </c>
       <c r="E66">
-        <v>508.2501831054688</v>
+        <v>518</v>
       </c>
       <c r="F66">
-        <v>23208597</v>
+        <v>33118483</v>
       </c>
       <c r="G66">
-        <v>511.6318908691406</v>
+        <v>510.3458068847656</v>
       </c>
       <c r="H66">
-        <v>514.5162933349609</v>
+        <v>513.8732513427734</v>
       </c>
       <c r="I66">
-        <v>516.2071426391601</v>
+        <v>514.145036315918</v>
       </c>
       <c r="J66">
-        <v>-4.575251770019463</v>
+        <v>-3.799229431152355</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -3950,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="O66" t="b">
         <v>0</v>
@@ -3959,39 +3953,39 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>26398700.2</v>
+        <v>26424816.05</v>
       </c>
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="2">
-        <v>45001</v>
+        <v>45005</v>
       </c>
       <c r="B67">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="C67">
+        <v>518</v>
+      </c>
+      <c r="D67">
         <v>510</v>
       </c>
-      <c r="D67">
-        <v>504</v>
-      </c>
       <c r="E67">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="F67">
-        <v>21965994</v>
+        <v>11837312</v>
       </c>
       <c r="G67">
-        <v>508.7936950683594</v>
+        <v>510.1011535644531</v>
       </c>
       <c r="H67">
-        <v>513.3955780029297</v>
+        <v>513.2536102294922</v>
       </c>
       <c r="I67">
-        <v>514.3537796020507</v>
+        <v>513.4871017456055</v>
       </c>
       <c r="J67">
-        <v>-5.560084533691338</v>
+        <v>-3.385948181152401</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -4003,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O67" t="b">
         <v>0</v>
@@ -4012,39 +4006,39 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>26420681.2</v>
+        <v>24990900.55</v>
       </c>
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="2">
-        <v>45002</v>
+        <v>45006</v>
       </c>
       <c r="B68">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C68">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D68">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E68">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F68">
-        <v>33118483</v>
+        <v>18284799</v>
       </c>
       <c r="G68">
-        <v>510.3458068847656</v>
+        <v>512.0500366210938</v>
       </c>
       <c r="H68">
-        <v>513.8732513427734</v>
+        <v>512.8355865478516</v>
       </c>
       <c r="I68">
-        <v>514.145036315918</v>
+        <v>513.5764755249023</v>
       </c>
       <c r="J68">
-        <v>-3.799229431152355</v>
+        <v>-1.526438903808526</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -4056,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="O68" t="b">
         <v>0</v>
@@ -4065,198 +4059,201 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>26424816.05</v>
+        <v>24084009.25</v>
       </c>
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="2">
-        <v>45005</v>
+        <v>45007</v>
       </c>
       <c r="B69">
+        <v>524</v>
+      </c>
+      <c r="C69">
+        <v>533</v>
+      </c>
+      <c r="D69">
+        <v>524</v>
+      </c>
+      <c r="E69">
+        <v>533</v>
+      </c>
+      <c r="F69">
+        <v>42385987</v>
+      </c>
+      <c r="G69">
         <v>517</v>
       </c>
-      <c r="C69">
-        <v>518</v>
-      </c>
-      <c r="D69">
-        <v>510</v>
-      </c>
-      <c r="E69">
-        <v>512</v>
-      </c>
-      <c r="F69">
-        <v>11837312</v>
-      </c>
-      <c r="G69">
-        <v>510.1011535644531</v>
-      </c>
       <c r="H69">
-        <v>513.2536102294922</v>
+        <v>514.3159454345703</v>
       </c>
       <c r="I69">
-        <v>513.4871017456055</v>
+        <v>514.5155807495117</v>
       </c>
       <c r="J69">
-        <v>-3.385948181152401</v>
+        <v>2.484419250488259</v>
       </c>
       <c r="K69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="b">
         <v>0</v>
       </c>
       <c r="M69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="O69" t="b">
         <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>24990900.55</v>
+        <v>23592150.45</v>
       </c>
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="2">
-        <v>45006</v>
+        <v>45008</v>
       </c>
       <c r="B70">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="C70">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="D70">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="E70">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="F70">
-        <v>18284799</v>
+        <v>26728246</v>
       </c>
       <c r="G70">
-        <v>512.0500366210938</v>
+        <v>523.6</v>
       </c>
       <c r="H70">
-        <v>512.8355865478516</v>
+        <v>516.1968475341797</v>
       </c>
       <c r="I70">
-        <v>513.5764755249023</v>
+        <v>515.7544174194336</v>
       </c>
       <c r="J70">
-        <v>-1.526438903808526</v>
+        <v>7.845582580566429</v>
       </c>
       <c r="K70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="b">
         <v>0</v>
       </c>
       <c r="N70">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="O70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>24084009.25</v>
+        <v>24708192</v>
+      </c>
+      <c r="R70">
+        <v>536</v>
       </c>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="2">
-        <v>45007</v>
+        <v>45009</v>
       </c>
       <c r="B71">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="C71">
+        <v>539</v>
+      </c>
+      <c r="D71">
+        <v>535</v>
+      </c>
+      <c r="E71">
+        <v>539</v>
+      </c>
+      <c r="F71">
+        <v>21926240</v>
+      </c>
+      <c r="G71">
+        <v>527.8</v>
+      </c>
+      <c r="H71">
+        <v>519.0729034423828</v>
+      </c>
+      <c r="I71">
+        <v>517.4908309936524</v>
+      </c>
+      <c r="J71">
+        <v>10.30916900634759</v>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71">
         <v>533</v>
       </c>
-      <c r="D71">
-        <v>524</v>
-      </c>
-      <c r="E71">
-        <v>533</v>
-      </c>
-      <c r="F71">
-        <v>42385987</v>
-      </c>
-      <c r="G71">
-        <v>517</v>
-      </c>
-      <c r="H71">
-        <v>514.3159454345703</v>
-      </c>
-      <c r="I71">
-        <v>514.5155807495117</v>
-      </c>
-      <c r="J71">
-        <v>2.484419250488259</v>
-      </c>
-      <c r="K71" t="b">
-        <v>1</v>
-      </c>
-      <c r="L71" t="b">
-        <v>0</v>
-      </c>
-      <c r="M71" t="b">
-        <v>1</v>
-      </c>
-      <c r="N71">
-        <v>528</v>
-      </c>
       <c r="O71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="b">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>23592150.45</v>
+        <v>25369399.3</v>
       </c>
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="2">
-        <v>45008</v>
+        <v>45012</v>
       </c>
       <c r="B72">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C72">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D72">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E72">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F72">
-        <v>26728246</v>
+        <v>16111177</v>
       </c>
       <c r="G72">
-        <v>523.6</v>
+        <v>531.6</v>
       </c>
       <c r="H72">
-        <v>516.1968475341797</v>
+        <v>520.8505767822265</v>
       </c>
       <c r="I72">
-        <v>515.7544174194336</v>
+        <v>518.2802047729492</v>
       </c>
       <c r="J72">
-        <v>7.845582580566429</v>
+        <v>13.3197952270508</v>
       </c>
       <c r="K72" t="b">
         <v>1</v>
@@ -4268,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="O72" t="b">
         <v>1</v>
@@ -4277,42 +4274,39 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>24708192</v>
-      </c>
-      <c r="R72">
-        <v>536</v>
+        <v>25236949.05</v>
       </c>
     </row>
     <row r="73" spans="1:19">
       <c r="A73" s="2">
-        <v>45009</v>
+        <v>45013</v>
       </c>
       <c r="B73">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C73">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="D73">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="E73">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="F73">
-        <v>21926240</v>
+        <v>17234120</v>
       </c>
       <c r="G73">
-        <v>527.8</v>
+        <v>533.2</v>
       </c>
       <c r="H73">
-        <v>519.0729034423828</v>
+        <v>522.6250183105469</v>
       </c>
       <c r="I73">
-        <v>517.4908309936524</v>
+        <v>519.1176956176757</v>
       </c>
       <c r="J73">
-        <v>10.30916900634759</v>
+        <v>14.08230438232431</v>
       </c>
       <c r="K73" t="b">
         <v>1</v>
@@ -4333,52 +4327,52 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>25369399.3</v>
+        <v>24773666.15</v>
       </c>
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="2">
-        <v>45012</v>
+        <v>45014</v>
       </c>
       <c r="B74">
         <v>533</v>
       </c>
       <c r="C74">
+        <v>533</v>
+      </c>
+      <c r="D74">
+        <v>525</v>
+      </c>
+      <c r="E74">
+        <v>530</v>
+      </c>
+      <c r="F74">
+        <v>17280749</v>
+      </c>
+      <c r="G74">
+        <v>532.6</v>
+      </c>
+      <c r="H74">
+        <v>524.8</v>
+      </c>
+      <c r="I74">
+        <v>519.6581466674804</v>
+      </c>
+      <c r="J74">
+        <v>12.9418533325196</v>
+      </c>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" t="b">
+        <v>1</v>
+      </c>
+      <c r="M74" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74">
         <v>536</v>
       </c>
-      <c r="D74">
-        <v>531</v>
-      </c>
-      <c r="E74">
-        <v>531</v>
-      </c>
-      <c r="F74">
-        <v>16111177</v>
-      </c>
-      <c r="G74">
-        <v>531.6</v>
-      </c>
-      <c r="H74">
-        <v>520.8505767822265</v>
-      </c>
-      <c r="I74">
-        <v>518.2802047729492</v>
-      </c>
-      <c r="J74">
-        <v>13.3197952270508</v>
-      </c>
-      <c r="K74" t="b">
-        <v>1</v>
-      </c>
-      <c r="L74" t="b">
-        <v>1</v>
-      </c>
-      <c r="M74" t="b">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>525</v>
-      </c>
       <c r="O74" t="b">
         <v>1</v>
       </c>
@@ -4386,39 +4380,39 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>25236949.05</v>
+        <v>23550747.6</v>
       </c>
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="2">
-        <v>45013</v>
+        <v>45015</v>
       </c>
       <c r="B75">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="C75">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="D75">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="E75">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="F75">
-        <v>17234120</v>
+        <v>19201564</v>
       </c>
       <c r="G75">
-        <v>533.2</v>
+        <v>532</v>
       </c>
       <c r="H75">
-        <v>522.6250183105469</v>
+        <v>527.8</v>
       </c>
       <c r="I75">
-        <v>519.1176956176757</v>
+        <v>520.5977890014649</v>
       </c>
       <c r="J75">
-        <v>14.08230438232431</v>
+        <v>11.40221099853511</v>
       </c>
       <c r="K75" t="b">
         <v>1</v>
@@ -4430,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="O75" t="b">
         <v>1</v>
@@ -4439,52 +4433,52 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>24773666.15</v>
+        <v>22436742.65</v>
       </c>
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="2">
-        <v>45014</v>
+        <v>45016</v>
       </c>
       <c r="B76">
+        <v>538</v>
+      </c>
+      <c r="C76">
+        <v>538</v>
+      </c>
+      <c r="D76">
+        <v>532</v>
+      </c>
+      <c r="E76">
         <v>533</v>
       </c>
-      <c r="C76">
-        <v>533</v>
-      </c>
-      <c r="D76">
-        <v>525</v>
-      </c>
-      <c r="E76">
+      <c r="F76">
+        <v>23558838</v>
+      </c>
+      <c r="G76">
+        <v>530.8</v>
+      </c>
+      <c r="H76">
+        <v>529.3</v>
+      </c>
+      <c r="I76">
+        <v>521.5866256713867</v>
+      </c>
+      <c r="J76">
+        <v>9.213374328613213</v>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" t="b">
+        <v>0</v>
+      </c>
+      <c r="N76">
         <v>530</v>
       </c>
-      <c r="F76">
-        <v>17280749</v>
-      </c>
-      <c r="G76">
-        <v>532.6</v>
-      </c>
-      <c r="H76">
-        <v>524.8</v>
-      </c>
-      <c r="I76">
-        <v>519.6581466674804</v>
-      </c>
-      <c r="J76">
-        <v>12.9418533325196</v>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" t="b">
-        <v>1</v>
-      </c>
-      <c r="M76" t="b">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>536</v>
-      </c>
       <c r="O76" t="b">
         <v>1</v>
       </c>
@@ -4492,145 +4486,148 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>23550747.6</v>
+        <v>22568881.65</v>
       </c>
     </row>
     <row r="77" spans="1:19">
       <c r="A77" s="2">
-        <v>45015</v>
+        <v>45022</v>
       </c>
       <c r="B77">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C77">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D77">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E77">
+        <v>530</v>
+      </c>
+      <c r="F77">
+        <v>25423363</v>
+      </c>
+      <c r="G77">
+        <v>530.6</v>
+      </c>
+      <c r="H77">
+        <v>531.1</v>
+      </c>
+      <c r="I77">
+        <v>522.1768051147461</v>
+      </c>
+      <c r="J77">
+        <v>8.423194885253906</v>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N77">
         <v>535</v>
       </c>
-      <c r="F77">
-        <v>19201564</v>
-      </c>
-      <c r="G77">
-        <v>532</v>
-      </c>
-      <c r="H77">
-        <v>527.8</v>
-      </c>
-      <c r="I77">
-        <v>520.5977890014649</v>
-      </c>
-      <c r="J77">
-        <v>11.40221099853511</v>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="b">
-        <v>1</v>
-      </c>
-      <c r="M77" t="b">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>538</v>
-      </c>
       <c r="O77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>22436742.65</v>
+        <v>22584128.8</v>
+      </c>
+      <c r="S77">
+        <v>535</v>
       </c>
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="2">
-        <v>45016</v>
+        <v>45023</v>
       </c>
       <c r="B78">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C78">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D78">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E78">
+        <v>531</v>
+      </c>
+      <c r="F78">
+        <v>8557482</v>
+      </c>
+      <c r="G78">
+        <v>531.8</v>
+      </c>
+      <c r="H78">
+        <v>532.5</v>
+      </c>
+      <c r="I78">
+        <v>522.6677932739258</v>
+      </c>
+      <c r="J78">
+        <v>9.132206726074173</v>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="b">
+        <v>1</v>
+      </c>
+      <c r="M78" t="b">
+        <v>0</v>
+      </c>
+      <c r="N78">
         <v>533</v>
       </c>
-      <c r="F78">
-        <v>23558838</v>
-      </c>
-      <c r="G78">
-        <v>530.8</v>
-      </c>
-      <c r="H78">
-        <v>529.3</v>
-      </c>
-      <c r="I78">
-        <v>521.5866256713867</v>
-      </c>
-      <c r="J78">
-        <v>9.213374328613213</v>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="b">
-        <v>1</v>
-      </c>
-      <c r="M78" t="b">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>530</v>
-      </c>
       <c r="O78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>22568881.65</v>
+        <v>22759192.7</v>
       </c>
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="2">
-        <v>45022</v>
+        <v>45026</v>
       </c>
       <c r="B79">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C79">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D79">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E79">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F79">
-        <v>25423363</v>
+        <v>7435151</v>
       </c>
       <c r="G79">
-        <v>530.6</v>
+        <v>531.6</v>
       </c>
       <c r="H79">
-        <v>531.1</v>
+        <v>532.1</v>
       </c>
       <c r="I79">
-        <v>522.1768051147461</v>
+        <v>523.2079727172852</v>
       </c>
       <c r="J79">
-        <v>8.423194885253906</v>
+        <v>8.392027282714821</v>
       </c>
       <c r="K79" t="b">
         <v>1</v>
@@ -4642,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="O79" t="b">
         <v>0</v>
@@ -4651,42 +4648,39 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>22584128.8</v>
-      </c>
-      <c r="S79">
-        <v>535</v>
+        <v>21944012.9</v>
       </c>
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="2">
-        <v>45023</v>
+        <v>45027</v>
       </c>
       <c r="B80">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="C80">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D80">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E80">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F80">
-        <v>8557482</v>
+        <v>22675697</v>
       </c>
       <c r="G80">
-        <v>531.8</v>
+        <v>529.4</v>
       </c>
       <c r="H80">
-        <v>532.5</v>
+        <v>530.7</v>
       </c>
       <c r="I80">
-        <v>522.6677932739258</v>
+        <v>523.4484237670898</v>
       </c>
       <c r="J80">
-        <v>9.132206726074173</v>
+        <v>5.951576232910156</v>
       </c>
       <c r="K80" t="b">
         <v>1</v>
@@ -4698,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="O80" t="b">
         <v>0</v>
@@ -4707,39 +4701,39 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>22759192.7</v>
+        <v>21090150.05</v>
       </c>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="2">
-        <v>45026</v>
+        <v>45028</v>
       </c>
       <c r="B81">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C81">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D81">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="E81">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="F81">
-        <v>7435151</v>
+        <v>23816473</v>
       </c>
       <c r="G81">
-        <v>531.6</v>
+        <v>526.8</v>
       </c>
       <c r="H81">
-        <v>532.1</v>
+        <v>528.8</v>
       </c>
       <c r="I81">
-        <v>523.2079727172852</v>
+        <v>523.9364517211914</v>
       </c>
       <c r="J81">
-        <v>8.392027282714821</v>
+        <v>2.863548278808594</v>
       </c>
       <c r="K81" t="b">
         <v>1</v>
@@ -4751,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="O81" t="b">
         <v>0</v>
@@ -4760,51 +4754,51 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>21944012.9</v>
+        <v>21146056.05</v>
       </c>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="2">
-        <v>45027</v>
+        <v>45029</v>
       </c>
       <c r="B82">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C82">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D82">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="E82">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="F82">
-        <v>22675697</v>
+        <v>25536889</v>
       </c>
       <c r="G82">
-        <v>529.4</v>
+        <v>522.8</v>
       </c>
       <c r="H82">
-        <v>530.7</v>
+        <v>526.7</v>
       </c>
       <c r="I82">
-        <v>523.4484237670898</v>
+        <v>523.7752883911132</v>
       </c>
       <c r="J82">
-        <v>5.951576232910156</v>
+        <v>-0.9752883911132812</v>
       </c>
       <c r="K82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" t="b">
         <v>1</v>
       </c>
       <c r="M82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="O82" t="b">
         <v>0</v>
@@ -4813,51 +4807,51 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>21090150.05</v>
+        <v>21134599.45</v>
       </c>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="2">
-        <v>45028</v>
+        <v>45030</v>
       </c>
       <c r="B83">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C83">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D83">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E83">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F83">
-        <v>23816473</v>
+        <v>18072504</v>
       </c>
       <c r="G83">
-        <v>526.8</v>
+        <v>519.8</v>
       </c>
       <c r="H83">
-        <v>528.8</v>
+        <v>525.8</v>
       </c>
       <c r="I83">
-        <v>523.9364517211914</v>
+        <v>524.2125091552734</v>
       </c>
       <c r="J83">
-        <v>2.863548278808594</v>
+        <v>-4.412509155273483</v>
       </c>
       <c r="K83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83" t="b">
         <v>0</v>
       </c>
       <c r="N83">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="O83" t="b">
         <v>0</v>
@@ -4866,51 +4860,51 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>21146056.05</v>
+        <v>21338096.55</v>
       </c>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="2">
-        <v>45029</v>
+        <v>45033</v>
       </c>
       <c r="B84">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C84">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D84">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E84">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="F84">
-        <v>25536889</v>
+        <v>14634287</v>
       </c>
       <c r="G84">
-        <v>522.8</v>
+        <v>518</v>
       </c>
       <c r="H84">
-        <v>526.7</v>
+        <v>524.8</v>
       </c>
       <c r="I84">
-        <v>523.7752883911132</v>
+        <v>524.8</v>
       </c>
       <c r="J84">
-        <v>-0.9752883911132812</v>
+        <v>-6.799999999999955</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
       </c>
       <c r="L84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="O84" t="b">
         <v>0</v>
@@ -4919,39 +4913,39 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>21134599.45</v>
+        <v>21217983.25</v>
       </c>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="2">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="B85">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C85">
         <v>520</v>
       </c>
       <c r="D85">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E85">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F85">
-        <v>18072504</v>
+        <v>15168888</v>
       </c>
       <c r="G85">
-        <v>519.8</v>
+        <v>516.2</v>
       </c>
       <c r="H85">
-        <v>525.8</v>
+        <v>522.8</v>
       </c>
       <c r="I85">
-        <v>524.2125091552734</v>
+        <v>525.3</v>
       </c>
       <c r="J85">
-        <v>-4.412509155273483</v>
+        <v>-9.099999999999909</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
@@ -4963,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="O85" t="b">
         <v>0</v>
@@ -4972,39 +4966,39 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>21338096.55</v>
+        <v>20789267.75</v>
       </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="2">
-        <v>45033</v>
+        <v>45035</v>
       </c>
       <c r="B86">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C86">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D86">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E86">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="F86">
-        <v>14634287</v>
+        <v>21123233</v>
       </c>
       <c r="G86">
-        <v>518</v>
+        <v>514.2</v>
       </c>
       <c r="H86">
-        <v>524.8</v>
+        <v>520.5</v>
       </c>
       <c r="I86">
-        <v>524.8</v>
+        <v>524.9</v>
       </c>
       <c r="J86">
-        <v>-6.799999999999955</v>
+        <v>-10.69999999999993</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
@@ -5016,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="O86" t="b">
         <v>0</v>
@@ -5025,52 +5019,52 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>21217983.25</v>
+        <v>20449412.45</v>
       </c>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="2">
-        <v>45034</v>
+        <v>45036</v>
       </c>
       <c r="B87">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C87">
+        <v>516</v>
+      </c>
+      <c r="D87">
+        <v>510</v>
+      </c>
+      <c r="E87">
+        <v>513</v>
+      </c>
+      <c r="F87">
+        <v>17221961</v>
+      </c>
+      <c r="G87">
+        <v>514.8</v>
+      </c>
+      <c r="H87">
+        <v>518.8</v>
+      </c>
+      <c r="I87">
+        <v>524.95</v>
+      </c>
+      <c r="J87">
+        <v>-10.15000000000009</v>
+      </c>
+      <c r="K87" t="b">
+        <v>0</v>
+      </c>
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="b">
+        <v>0</v>
+      </c>
+      <c r="N87">
         <v>520</v>
       </c>
-      <c r="D87">
-        <v>514</v>
-      </c>
-      <c r="E87">
-        <v>515</v>
-      </c>
-      <c r="F87">
-        <v>15168888</v>
-      </c>
-      <c r="G87">
-        <v>516.2</v>
-      </c>
-      <c r="H87">
-        <v>522.8</v>
-      </c>
-      <c r="I87">
-        <v>525.3</v>
-      </c>
-      <c r="J87">
-        <v>-9.099999999999909</v>
-      </c>
-      <c r="K87" t="b">
-        <v>0</v>
-      </c>
-      <c r="L87" t="b">
-        <v>0</v>
-      </c>
-      <c r="M87" t="b">
-        <v>0</v>
-      </c>
-      <c r="N87">
-        <v>517</v>
-      </c>
       <c r="O87" t="b">
         <v>0</v>
       </c>
@@ -5078,39 +5072,39 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>20789267.75</v>
+        <v>19849649.95</v>
       </c>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="2">
-        <v>45035</v>
+        <v>45037</v>
       </c>
       <c r="B88">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C88">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D88">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E88">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F88">
-        <v>21123233</v>
+        <v>25016683</v>
       </c>
       <c r="G88">
-        <v>514.2</v>
+        <v>513.8</v>
       </c>
       <c r="H88">
-        <v>520.5</v>
+        <v>516.8</v>
       </c>
       <c r="I88">
-        <v>524.9</v>
+        <v>524.65</v>
       </c>
       <c r="J88">
-        <v>-10.69999999999993</v>
+        <v>-10.85000000000002</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
@@ -5122,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="O88" t="b">
         <v>0</v>
@@ -5131,39 +5125,39 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>20449412.45</v>
+        <v>20118882.4</v>
       </c>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="2">
-        <v>45036</v>
+        <v>45040</v>
       </c>
       <c r="B89">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C89">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D89">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E89">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F89">
-        <v>17221961</v>
+        <v>16886512</v>
       </c>
       <c r="G89">
-        <v>514.8</v>
+        <v>511.2</v>
       </c>
       <c r="H89">
-        <v>518.8</v>
+        <v>514.6</v>
       </c>
       <c r="I89">
-        <v>524.95</v>
+        <v>523.35</v>
       </c>
       <c r="J89">
-        <v>-10.15000000000009</v>
+        <v>-12.15000000000003</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
@@ -5175,7 +5169,7 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="O89" t="b">
         <v>0</v>
@@ -5184,39 +5178,39 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>19849649.95</v>
+        <v>20455476.6</v>
       </c>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="2">
-        <v>45037</v>
+        <v>45041</v>
       </c>
       <c r="B90">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="C90">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D90">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="E90">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="F90">
-        <v>25016683</v>
+        <v>36898412</v>
       </c>
       <c r="G90">
-        <v>513.8</v>
+        <v>507.8</v>
       </c>
       <c r="H90">
-        <v>516.8</v>
+        <v>512</v>
       </c>
       <c r="I90">
-        <v>524.65</v>
+        <v>521.35</v>
       </c>
       <c r="J90">
-        <v>-10.85000000000002</v>
+        <v>-13.55000000000001</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
@@ -5228,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="O90" t="b">
         <v>0</v>
@@ -5237,39 +5231,39 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>20118882.4</v>
+        <v>19180502.85</v>
       </c>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="2">
-        <v>45040</v>
+        <v>45042</v>
       </c>
       <c r="B91">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C91">
-        <v>510</v>
+        <v>498.5</v>
       </c>
       <c r="D91">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="E91">
-        <v>507</v>
+        <v>491.5</v>
       </c>
       <c r="F91">
-        <v>16886512</v>
+        <v>31269245</v>
       </c>
       <c r="G91">
-        <v>511.2</v>
+        <v>504.1</v>
       </c>
       <c r="H91">
-        <v>514.6</v>
+        <v>509.15</v>
       </c>
       <c r="I91">
-        <v>523.35</v>
+        <v>518.975</v>
       </c>
       <c r="J91">
-        <v>-12.15000000000003</v>
+        <v>-14.875</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
@@ -5281,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="O91" t="b">
         <v>0</v>
@@ -5290,39 +5284,39 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>20455476.6</v>
+        <v>19689011.15</v>
       </c>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="2">
-        <v>45041</v>
+        <v>45043</v>
       </c>
       <c r="B92">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="C92">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D92">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="E92">
-        <v>498</v>
+        <v>493.5</v>
       </c>
       <c r="F92">
-        <v>36898412</v>
+        <v>29537148</v>
       </c>
       <c r="G92">
-        <v>507.8</v>
+        <v>500.2</v>
       </c>
       <c r="H92">
-        <v>512</v>
+        <v>507.5</v>
       </c>
       <c r="I92">
-        <v>521.35</v>
+        <v>517.1</v>
       </c>
       <c r="J92">
-        <v>-13.55000000000001</v>
+        <v>-16.90000000000003</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
@@ -5334,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>498</v>
+        <v>498.5</v>
       </c>
       <c r="O92" t="b">
         <v>0</v>
@@ -5343,39 +5337,39 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>19180502.85</v>
+        <v>20156161.4</v>
       </c>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="2">
-        <v>45042</v>
+        <v>45044</v>
       </c>
       <c r="B93">
+        <v>498.5</v>
+      </c>
+      <c r="C93">
+        <v>502</v>
+      </c>
+      <c r="D93">
         <v>498</v>
       </c>
-      <c r="C93">
-        <v>498.5</v>
-      </c>
-      <c r="D93">
-        <v>491</v>
-      </c>
       <c r="E93">
-        <v>491.5</v>
+        <v>502</v>
       </c>
       <c r="F93">
-        <v>31269245</v>
+        <v>24824100</v>
       </c>
       <c r="G93">
-        <v>504.1</v>
+        <v>498.4</v>
       </c>
       <c r="H93">
-        <v>509.15</v>
+        <v>506.1</v>
       </c>
       <c r="I93">
-        <v>518.975</v>
+        <v>515.95</v>
       </c>
       <c r="J93">
-        <v>-14.875</v>
+        <v>-17.55000000000007</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
@@ -5387,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="O93" t="b">
         <v>0</v>
@@ -5396,39 +5390,39 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>19689011.15</v>
+        <v>20827459.95</v>
       </c>
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="2">
-        <v>45043</v>
+        <v>45048</v>
       </c>
       <c r="B94">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="C94">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="D94">
-        <v>489</v>
+        <v>496.5</v>
       </c>
       <c r="E94">
-        <v>493.5</v>
+        <v>501</v>
       </c>
       <c r="F94">
-        <v>29537148</v>
+        <v>15325791</v>
       </c>
       <c r="G94">
-        <v>500.2</v>
+        <v>497.2</v>
       </c>
       <c r="H94">
-        <v>507.5</v>
+        <v>504.2</v>
       </c>
       <c r="I94">
-        <v>517.1</v>
+        <v>514.5</v>
       </c>
       <c r="J94">
-        <v>-16.90000000000003</v>
+        <v>-17.30000000000001</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
@@ -5440,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>498.5</v>
+        <v>496</v>
       </c>
       <c r="O94" t="b">
         <v>0</v>
@@ -5449,39 +5443,39 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>20156161.4</v>
+        <v>21206958.95</v>
       </c>
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="2">
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="B95">
-        <v>498.5</v>
+        <v>496</v>
       </c>
       <c r="C95">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D95">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E95">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F95">
-        <v>24824100</v>
+        <v>11369311</v>
       </c>
       <c r="G95">
-        <v>498.4</v>
+        <v>496.8</v>
       </c>
       <c r="H95">
-        <v>506.1</v>
+        <v>502.3</v>
       </c>
       <c r="I95">
-        <v>515.95</v>
+        <v>512.55</v>
       </c>
       <c r="J95">
-        <v>-17.55000000000007</v>
+        <v>-15.74999999999994</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
@@ -5493,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O95" t="b">
         <v>0</v>
@@ -5502,39 +5496,39 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>20827459.95</v>
+        <v>21109211.05</v>
       </c>
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="2">
-        <v>45048</v>
+        <v>45050</v>
       </c>
       <c r="B96">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C96">
-        <v>502</v>
+        <v>499.5</v>
       </c>
       <c r="D96">
-        <v>496.5</v>
+        <v>496</v>
       </c>
       <c r="E96">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F96">
-        <v>15589362</v>
+        <v>13340749</v>
       </c>
       <c r="G96">
-        <v>497.2</v>
+        <v>498.1</v>
       </c>
       <c r="H96">
-        <v>504.2</v>
+        <v>501.1</v>
       </c>
       <c r="I96">
-        <v>514.5</v>
+        <v>510.8</v>
       </c>
       <c r="J96">
-        <v>-17.30000000000001</v>
+        <v>-12.69999999999999</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
@@ -5552,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>21206958.95</v>
+        <v>20717598.4</v>
       </c>
     </row>
   </sheetData>
